--- a/sriramModel-nelson-atypical-patientID_15-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_15-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.371630347028985</v>
+        <v>8.371656268280882</v>
       </c>
       <c r="C2">
-        <v>8.291875222700892</v>
+        <v>8.371641121409745</v>
       </c>
       <c r="D2">
-        <v>8.269758900385414</v>
+        <v>8.371637192474363</v>
       </c>
       <c r="E2">
-        <v>8.267297061366493</v>
+        <v>8.371856571655568</v>
       </c>
       <c r="F2">
-        <v>8.371600535596189</v>
+        <v>8.266593687432108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.343596621661419</v>
+        <v>8.343650600106201</v>
       </c>
       <c r="C3">
-        <v>8.189627651593659</v>
+        <v>8.343468296747073</v>
       </c>
       <c r="D3">
-        <v>8.14622332032951</v>
+        <v>8.343462833705511</v>
       </c>
       <c r="E3">
-        <v>8.14163116158913</v>
+        <v>8.344030742577768</v>
       </c>
       <c r="F3">
-        <v>8.343593328376093</v>
+        <v>8.140528950877879</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.315892293449341</v>
+        <v>8.316003198346337</v>
       </c>
       <c r="C4">
-        <v>8.093060271685006</v>
+        <v>8.315481006332993</v>
       </c>
       <c r="D4">
-        <v>8.029162119099157</v>
+        <v>8.315475860338761</v>
       </c>
       <c r="E4">
-        <v>8.022735969576228</v>
+        <v>8.316500309917958</v>
       </c>
       <c r="F4">
-        <v>8.315995686629169</v>
+        <v>8.021502812818589</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.288496657756113</v>
+        <v>8.288723385327634</v>
       </c>
       <c r="C5">
-        <v>8.001969638533128</v>
+        <v>8.287678542001519</v>
       </c>
       <c r="D5">
-        <v>7.918354587736121</v>
+        <v>8.28767510469442</v>
       </c>
       <c r="E5">
-        <v>7.910357044316395</v>
+        <v>8.289242399241155</v>
       </c>
       <c r="F5">
-        <v>8.288796113577067</v>
+        <v>7.909226360853525</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.261382842483048</v>
+        <v>8.261800529631083</v>
       </c>
       <c r="C6">
-        <v>7.916147526784397</v>
+        <v>8.260060041991176</v>
       </c>
       <c r="D6">
-        <v>7.813589834491157</v>
+        <v>8.26005930936911</v>
       </c>
       <c r="E6">
-        <v>7.804251161228147</v>
+        <v>8.262235662155588</v>
       </c>
       <c r="F6">
-        <v>8.261952684714158</v>
+        <v>7.803424444008273</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.234523964108204</v>
+        <v>8.235199756391095</v>
       </c>
       <c r="C7">
-        <v>7.835382576317662</v>
+        <v>8.232624490135986</v>
       </c>
       <c r="D7">
-        <v>7.714666207115339</v>
+        <v>8.232627132234818</v>
       </c>
       <c r="E7">
-        <v>7.704185676745987</v>
+        <v>8.23546122565476</v>
       </c>
       <c r="F7">
-        <v>8.235406931023183</v>
+        <v>7.703835103903743</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.207896202849509</v>
+        <v>8.208870952849706</v>
       </c>
       <c r="C8">
-        <v>7.759461759124698</v>
+        <v>8.205370729621482</v>
       </c>
       <c r="D8">
-        <v>7.621390839444911</v>
+        <v>8.205377156044415</v>
       </c>
       <c r="E8">
-        <v>7.609938028794708</v>
+        <v>8.208902889078194</v>
       </c>
       <c r="F8">
-        <v>8.209103000356766</v>
+        <v>7.61020836878599</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.18147965388043</v>
+        <v>8.18276532511012</v>
       </c>
       <c r="C9">
-        <v>7.688171714239627</v>
+        <v>8.178297484204293</v>
       </c>
       <c r="D9">
-        <v>7.533579147922416</v>
+        <v>8.17830789586516</v>
       </c>
       <c r="E9">
-        <v>7.521295227756485</v>
+        <v>8.18254694392628</v>
       </c>
       <c r="F9">
-        <v>8.182998237475763</v>
+        <v>7.52230592208527</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.155258119912499</v>
+        <v>8.156845678359161</v>
       </c>
       <c r="C10">
-        <v>7.621300140350921</v>
+        <v>8.151403369757176</v>
       </c>
       <c r="D10">
-        <v>7.451054289263234</v>
+        <v>8.1514178059378</v>
       </c>
       <c r="E10">
-        <v>7.438053465691718</v>
+        <v>8.15638184983905</v>
       </c>
       <c r="F10">
-        <v>8.157063877936297</v>
+        <v>7.439900618693167</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.129218542285331</v>
+        <v>8.131087295964255</v>
       </c>
       <c r="C11">
-        <v>7.558636839248075</v>
+        <v>8.124686904045209</v>
       </c>
       <c r="D11">
-        <v>7.373646663670396</v>
+        <v>8.124705285723856</v>
       </c>
       <c r="E11">
-        <v>7.36001749366954</v>
+        <v>8.130397887010519</v>
       </c>
       <c r="F11">
-        <v>8.131281587239503</v>
+        <v>7.362775882042662</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.103350387367206</v>
+        <v>8.105474693886645</v>
       </c>
       <c r="C12">
-        <v>7.499974603924541</v>
+        <v>8.098146516718392</v>
       </c>
       <c r="D12">
-        <v>7.30119339157925</v>
+        <v>8.098168684711567</v>
       </c>
       <c r="E12">
-        <v>7.287000025587634</v>
+        <v>8.104586835159207</v>
       </c>
       <c r="F12">
-        <v>8.105639830750349</v>
+        <v>7.290725122547248</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.077645108524173</v>
+        <v>8.079998260022727</v>
       </c>
       <c r="C13">
-        <v>7.445110062570147</v>
+        <v>8.071780560832302</v>
       </c>
       <c r="D13">
-        <v>7.233537766880663</v>
+        <v>8.071806308583538</v>
       </c>
       <c r="E13">
-        <v>7.218821403536652</v>
+        <v>8.078941700349594</v>
       </c>
       <c r="F13">
-        <v>8.080131260961751</v>
+        <v>7.22355121936662</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.052095709729267</v>
+        <v>8.054651908226512</v>
       </c>
       <c r="C14">
-        <v>7.393844384272538</v>
+        <v>8.045587323864288</v>
       </c>
       <c r="D14">
-        <v>7.17052869645693</v>
+        <v>8.045616426418841</v>
       </c>
       <c r="E14">
-        <v>7.155309107583633</v>
+        <v>8.053456488080508</v>
       </c>
       <c r="F14">
-        <v>8.054751065707904</v>
+        <v>7.161066035217567</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.026696404440276</v>
+        <v>8.029431642494513</v>
       </c>
       <c r="C15">
-        <v>7.345983869505033</v>
+        <v>8.019565036359106</v>
       </c>
       <c r="D15">
-        <v>7.11202010974858</v>
+        <v>8.019597271535838</v>
       </c>
       <c r="E15">
-        <v>7.096297178910538</v>
+        <v>8.028126019564855</v>
       </c>
       <c r="F15">
-        <v>8.029495971081385</v>
+        <v>7.103089940375456</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.001442353058465</v>
+        <v>8.004334715567595</v>
       </c>
       <c r="C16">
-        <v>7.301340378675589</v>
+        <v>7.993711880137394</v>
       </c>
       <c r="D16">
-        <v>7.057870344235134</v>
+        <v>7.993747052728864</v>
       </c>
       <c r="E16">
-        <v>7.041625721964538</v>
+        <v>8.002945784109153</v>
       </c>
       <c r="F16">
-        <v>8.004363649066926</v>
+        <v>7.049451358138467</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.976329462067792</v>
+        <v>7.979359140136534</v>
       </c>
       <c r="C17">
-        <v>7.259731655709346</v>
+        <v>7.968025995916216</v>
       </c>
       <c r="D17">
-        <v>7.007941510543917</v>
+        <v>7.968063947505637</v>
       </c>
       <c r="E17">
-        <v>6.991140414321419</v>
+        <v>7.977911821320702</v>
       </c>
       <c r="F17">
-        <v>7.979352363302031</v>
+        <v>6.999986302387994</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.951354230244613</v>
+        <v>7.954503401627552</v>
       </c>
       <c r="C18">
-        <v>7.220981602557019</v>
+        <v>7.942505490912446</v>
       </c>
       <c r="D18">
-        <v>6.96209883280762</v>
+        <v>7.942546119637816</v>
       </c>
       <c r="E18">
-        <v>6.944691969572572</v>
+        <v>7.953020626662877</v>
       </c>
       <c r="F18">
-        <v>7.954460754833024</v>
+        <v>6.954537750321101</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.926513630002746</v>
+        <v>7.929766286611492</v>
       </c>
       <c r="C19">
-        <v>7.184920480229555</v>
+        <v>7.917148445993162</v>
       </c>
       <c r="D19">
-        <v>6.92020996488462</v>
+        <v>7.917191714238308</v>
       </c>
       <c r="E19">
-        <v>6.902135584871346</v>
+        <v>7.928269075958196</v>
       </c>
       <c r="F19">
-        <v>7.929687710367246</v>
+        <v>6.91295530739417</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.90180501601716</v>
+        <v>7.905146777737373</v>
       </c>
       <c r="C20">
-        <v>7.151385032372739</v>
+        <v>7.89195292255394</v>
       </c>
       <c r="D20">
-        <v>6.8821442838223</v>
+        <v>7.89199886684153</v>
       </c>
       <c r="E20">
-        <v>6.863330381682259</v>
+        <v>7.903654364635681</v>
       </c>
       <c r="F20">
-        <v>7.905032279745953</v>
+        <v>6.875094717662648</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.877226054074525</v>
+        <v>7.880643989113829</v>
       </c>
       <c r="C21">
-        <v>7.120218542532825</v>
+        <v>7.866916967546903</v>
       </c>
       <c r="D21">
-        <v>6.847772169892489</v>
+        <v>7.866965703223041</v>
       </c>
       <c r="E21">
-        <v>6.828138824541681</v>
+        <v>7.8791739586775</v>
       </c>
       <c r="F21">
-        <v>7.880493622951197</v>
+        <v>6.840817307362339</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.852774664733514</v>
+        <v>7.856257124281158</v>
       </c>
       <c r="C22">
-        <v>7.091270839599822</v>
+        <v>7.842038621173503</v>
       </c>
       <c r="D22">
-        <v>6.816964269399012</v>
+        <v>7.84209034533567</v>
       </c>
       <c r="E22">
-        <v>6.796426110240684</v>
+        <v>7.854825554731018</v>
       </c>
       <c r="F22">
-        <v>7.856070976346666</v>
+        <v>6.80998941756004</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.828448979239679</v>
+        <v>7.831985449463376</v>
       </c>
       <c r="C23">
-        <v>7.06439826329416</v>
+        <v>7.817315918812652</v>
       </c>
       <c r="D23">
-        <v>6.789590764232198</v>
+        <v>7.817370910752902</v>
       </c>
       <c r="E23">
-        <v>6.768059529548077</v>
+        <v>7.830607047482785</v>
       </c>
       <c r="F23">
-        <v>7.831763630158803</v>
+        <v>6.782481846752551</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.804247304163232</v>
+        <v>7.8078282756377</v>
       </c>
       <c r="C24">
-        <v>7.039463596918732</v>
+        <v>7.792746898306733</v>
       </c>
       <c r="D24">
-        <v>6.765520650267384</v>
+        <v>7.792805518038202</v>
       </c>
       <c r="E24">
-        <v>6.742907802409121</v>
+        <v>7.806516502692352</v>
       </c>
       <c r="F24">
-        <v>7.807570913119817</v>
+        <v>6.7581692044338</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.780168093043409</v>
+        <v>7.783784946203789</v>
       </c>
       <c r="C25">
-        <v>7.016335974379739</v>
+        <v>7.76832960245091</v>
       </c>
       <c r="D25">
-        <v>6.744621038273882</v>
+        <v>7.768392288175869</v>
       </c>
       <c r="E25">
-        <v>6.720840383095009</v>
+        <v>7.782552134507192</v>
       </c>
       <c r="F25">
-        <v>7.783492182382986</v>
+        <v>6.736929183806991</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7.75620992350548</v>
+        <v>7.759854829179633</v>
       </c>
       <c r="C26">
-        <v>6.994890758554384</v>
+        <v>7.744062083097396</v>
       </c>
       <c r="D26">
-        <v>6.726756492415802</v>
+        <v>7.744129348241097</v>
       </c>
       <c r="E26">
-        <v>6.701726736318568</v>
+        <v>7.758712286976606</v>
       </c>
       <c r="F26">
-        <v>7.759526816437972</v>
+        <v>6.718641802785555</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7.732371478647404</v>
+        <v>7.736037311267285</v>
       </c>
       <c r="C27">
-        <v>6.975009400058109</v>
+        <v>7.719942405838855</v>
       </c>
       <c r="D27">
-        <v>6.711788423269763</v>
+        <v>7.720014833314327</v>
       </c>
       <c r="E27">
-        <v>6.685435593039274</v>
+        <v>7.734995418146235</v>
       </c>
       <c r="F27">
-        <v>7.735674209807474</v>
+        <v>6.70318852288423</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7.708651531448583</v>
+        <v>7.71233179361462</v>
       </c>
       <c r="C28">
-        <v>6.956579280818836</v>
+        <v>7.695968651933978</v>
       </c>
       <c r="D28">
-        <v>6.69957455646965</v>
+        <v>7.696046888863514</v>
       </c>
       <c r="E28">
-        <v>6.671834194713671</v>
+        <v>7.711400086180708</v>
       </c>
       <c r="F28">
-        <v>7.711933769793205</v>
+        <v>6.690451237751959</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7.685048932435409</v>
+        <v>7.688737689022266</v>
       </c>
       <c r="C29">
-        <v>6.939493546211787</v>
+        <v>7.67213892186097</v>
       </c>
       <c r="D29">
-        <v>6.689968480030386</v>
+        <v>7.672223672729506</v>
       </c>
       <c r="E29">
-        <v>6.660787545120477</v>
+        <v>7.687924937933486</v>
       </c>
       <c r="F29">
-        <v>7.688304914137287</v>
+        <v>6.680311208935414</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7.661562599313195</v>
+        <v>7.665254419817773</v>
       </c>
       <c r="C30">
-        <v>6.923650939281595</v>
+        <v>7.648451337857834</v>
       </c>
       <c r="D30">
-        <v>6.682819304486325</v>
+        <v>7.648543357307633</v>
       </c>
       <c r="E30">
-        <v>6.652157688149287</v>
+        <v>7.664568698862448</v>
       </c>
       <c r="F30">
-        <v>7.664787068888421</v>
+        <v>6.672647858753614</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7.638191507982435</v>
+        <v>7.641881416301924</v>
       </c>
       <c r="C31">
-        <v>6.908955611076768</v>
+        <v>7.624904045314769</v>
       </c>
       <c r="D31">
-        <v>6.677971513869397</v>
+        <v>7.625004130537389</v>
       </c>
       <c r="E31">
-        <v>6.645803050341218</v>
+        <v>7.641330164344011</v>
       </c>
       <c r="F31">
-        <v>7.641379667064175</v>
+        <v>6.667337419749442</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7.614934685278479</v>
+        <v>7.618618115427214</v>
       </c>
       <c r="C32">
-        <v>6.895316936174992</v>
+        <v>7.601495216093601</v>
       </c>
       <c r="D32">
-        <v>6.675264924867262</v>
+        <v>7.601604198474408</v>
       </c>
       <c r="E32">
-        <v>6.641577903549171</v>
+        <v>7.61820819210469</v>
       </c>
       <c r="F32">
-        <v>7.618082147730682</v>
+        <v>6.664251587790083</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7.591791202787825</v>
+        <v>7.595463959987797</v>
       </c>
       <c r="C33">
-        <v>6.882649324225671</v>
+        <v>7.57822304896326</v>
       </c>
       <c r="D33">
-        <v>6.674534810573417</v>
+        <v>7.57834178592239</v>
       </c>
       <c r="E33">
-        <v>6.639331982402557</v>
+        <v>7.595201695602614</v>
       </c>
       <c r="F33">
-        <v>7.59489395523497</v>
+        <v>6.663256128525074</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7.568760171633611</v>
+        <v>7.572418398013273</v>
       </c>
       <c r="C34">
-        <v>6.870872032359962</v>
+        <v>7.555085771721769</v>
       </c>
       <c r="D34">
-        <v>6.675612257925528</v>
+        <v>7.555215138386604</v>
       </c>
       <c r="E34">
-        <v>6.63891032618531</v>
+        <v>7.572309638291739</v>
       </c>
       <c r="F34">
-        <v>7.571814538662466</v>
+        <v>6.664209509460258</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7.545840737995696</v>
+        <v>7.549480882323775</v>
       </c>
       <c r="C35">
-        <v>6.859908978002846</v>
+        <v>7.532081642777791</v>
       </c>
       <c r="D35">
-        <v>6.678324761223484</v>
+        <v>7.532222523313062</v>
       </c>
       <c r="E35">
-        <v>6.640153416312727</v>
+        <v>7.549531028536098</v>
       </c>
       <c r="F35">
-        <v>7.548843351375456</v>
+        <v>6.666961804172425</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7.523032079254292</v>
+        <v>7.526650869976073</v>
       </c>
       <c r="C36">
-        <v>6.849688552438492</v>
+        <v>7.509208951385878</v>
       </c>
       <c r="D36">
-        <v>6.682497047671263</v>
+        <v>7.50936223103867</v>
       </c>
       <c r="E36">
-        <v>6.642897640611709</v>
+        <v>7.526864915185638</v>
       </c>
       <c r="F36">
-        <v>7.525979850558842</v>
+        <v>6.671353752228837</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7.500333400721623</v>
+        <v>7.503927821947453</v>
       </c>
       <c r="C37">
-        <v>6.840143435798081</v>
+        <v>7.486466019456769</v>
       </c>
       <c r="D37">
-        <v>6.687952153940055</v>
+        <v>7.48663257636465</v>
       </c>
       <c r="E37">
-        <v>6.646976143884895</v>
+        <v>7.504310383696835</v>
       </c>
       <c r="F37">
-        <v>7.503223497009009</v>
+        <v>6.677216661860276</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7.477743932870061</v>
+        <v>7.481311202919096</v>
       </c>
       <c r="C38">
-        <v>6.831210415000633</v>
+        <v>7.463851201641338</v>
       </c>
       <c r="D38">
-        <v>6.694512744062226</v>
+        <v>7.464031899057109</v>
       </c>
       <c r="E38">
-        <v>6.652220069764223</v>
+        <v>7.481866552638235</v>
       </c>
       <c r="F38">
-        <v>7.480573755164705</v>
+        <v>6.684372757718606</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7.455262928775857</v>
+        <v>7.458800481088994</v>
       </c>
       <c r="C39">
-        <v>6.822830205256029</v>
+        <v>7.441362885922744</v>
       </c>
       <c r="D39">
-        <v>6.702002674140603</v>
+        <v>7.441558565025833</v>
       </c>
       <c r="E39">
-        <v>6.658460137645396</v>
+        <v>7.45953257048198</v>
       </c>
       <c r="F39">
-        <v>7.458030092634799</v>
+        <v>6.692636431955506</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7.432889661903821</v>
+        <v>7.436395127987566</v>
       </c>
       <c r="C40">
-        <v>6.814947275209944</v>
+        <v>7.418999494575734</v>
       </c>
       <c r="D40">
-        <v>6.710248742426023</v>
+        <v>7.419210967129056</v>
       </c>
       <c r="E40">
-        <v>6.665528526075105</v>
+        <v>7.437307612984196</v>
       </c>
       <c r="F40">
-        <v>7.435591980222963</v>
+        <v>6.701816405278858</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7.410623424395513</v>
+        <v>7.414094618361856</v>
       </c>
       <c r="C41">
-        <v>6.807509675869416</v>
+        <v>7.39675948361038</v>
       </c>
       <c r="D41">
-        <v>6.719082565015645</v>
+        <v>7.396987525580098</v>
       </c>
       <c r="E41">
-        <v>6.673260927348134</v>
+        <v>7.415190881066024</v>
       </c>
       <c r="F41">
-        <v>7.41325889180695</v>
+        <v>6.711718728666332</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7.388463525447245</v>
+        <v>7.391898430045711</v>
       </c>
       <c r="C42">
-        <v>6.800468873497484</v>
+        <v>7.374641343550985</v>
       </c>
       <c r="D42">
-        <v>6.728342491111405</v>
+        <v>7.37488668904914</v>
       </c>
       <c r="E42">
-        <v>6.681498640014705</v>
+        <v>7.393181598563134</v>
       </c>
       <c r="F42">
-        <v>7.391030304242194</v>
+        <v>6.722150449184035</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7.366409289898812</v>
+        <v>7.369806043911789</v>
       </c>
       <c r="C43">
-        <v>6.793779586668917</v>
+        <v>7.352643599205892</v>
       </c>
       <c r="D43">
-        <v>6.737875451157749</v>
+        <v>7.352906934755792</v>
       </c>
       <c r="E43">
-        <v>6.6900905749559</v>
+        <v>7.371279010138371</v>
       </c>
       <c r="F43">
-        <v>7.368905697220767</v>
+        <v>6.732923638440713</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.344460056823211</v>
+        <v>7.347816943657328</v>
       </c>
       <c r="C44">
-        <v>6.787399627732354</v>
+        <v>7.330764809456287</v>
       </c>
       <c r="D44">
-        <v>6.747538631042213</v>
+        <v>7.331046769230849</v>
       </c>
       <c r="E44">
-        <v>6.698895019271032</v>
+        <v>7.349482379710778</v>
       </c>
       <c r="F44">
-        <v>7.346884553211918</v>
+        <v>6.743859404937942</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7.322615178479686</v>
+        <v>7.325930615871442</v>
       </c>
       <c r="C45">
-        <v>6.781289748404638</v>
+        <v>7.309003567497736</v>
       </c>
       <c r="D45">
-        <v>6.757200858431252</v>
+        <v>7.309304728702274</v>
       </c>
       <c r="E45">
-        <v>6.707781082993546</v>
+        <v>7.32779098894466</v>
       </c>
       <c r="F45">
-        <v>7.324966357439473</v>
+        <v>6.754791516086368</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7.300874019287776</v>
+        <v>7.30414654991141</v>
       </c>
       <c r="C46">
-        <v>6.775413490165533</v>
+        <v>7.287358500111433</v>
       </c>
       <c r="D46">
-        <v>6.766743622948609</v>
+        <v>7.287679379208975</v>
       </c>
       <c r="E46">
-        <v>6.716629731901715</v>
+        <v>7.30620413591869</v>
       </c>
       <c r="F46">
-        <v>7.303150597922746</v>
+        <v>6.765569296274598</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7.279235955005519</v>
+        <v>7.282464237938124</v>
       </c>
       <c r="C47">
-        <v>6.769737039107395</v>
+        <v>7.265828267598859</v>
       </c>
       <c r="D47">
-        <v>6.776061679485106</v>
+        <v>7.266169317219877</v>
       </c>
       <c r="E47">
-        <v>6.725334395143232</v>
+        <v>7.284721133921724</v>
       </c>
       <c r="F47">
-        <v>7.281436765287601</v>
+        <v>6.776059616430704</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.257700371919132</v>
+        <v>7.26088317482538</v>
       </c>
       <c r="C48">
-        <v>6.764229085099889</v>
+        <v>7.244411563396457</v>
       </c>
       <c r="D48">
-        <v>6.785063231434265</v>
+        <v>7.244773169442452</v>
       </c>
       <c r="E48">
-        <v>6.733801190707718</v>
+        <v>7.26334131036332</v>
       </c>
       <c r="F48">
-        <v>7.259824352917832</v>
+        <v>6.786147911459647</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7.236266666132297</v>
+        <v>7.23940285811473</v>
       </c>
       <c r="C49">
-        <v>6.758860685589497</v>
+        <v>7.223107113381001</v>
       </c>
       <c r="D49">
-        <v>6.793669733067855</v>
+        <v>7.223489593177969</v>
       </c>
       <c r="E49">
-        <v>6.741948753316581</v>
+        <v>7.242064005780646</v>
       </c>
       <c r="F49">
-        <v>7.238312856770563</v>
+        <v>6.795738281796103</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.214934242938043</v>
+        <v>7.218022787939737</v>
       </c>
       <c r="C50">
-        <v>6.753605133982626</v>
+        <v>7.201913675647673</v>
       </c>
       <c r="D50">
-        <v>6.801815338786959</v>
+        <v>7.202317276355172</v>
       </c>
       <c r="E50">
-        <v>6.749707775582638</v>
+        <v>7.22088857296728</v>
       </c>
       <c r="F50">
-        <v>7.216901775452367</v>
+        <v>6.804752824959113</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.193702516246686</v>
+        <v>7.19674246705743</v>
       </c>
       <c r="C51">
-        <v>6.748437832630222</v>
+        <v>7.180830039711577</v>
       </c>
       <c r="D51">
-        <v>6.809446108093167</v>
+        <v>7.18125493734784</v>
       </c>
       <c r="E51">
-        <v>6.75702033191732</v>
+        <v>7.199814376180212</v>
       </c>
       <c r="F51">
-        <v>7.19559061008402</v>
+        <v>6.813130460902474</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.172570908007615</v>
+        <v>7.175561400776813</v>
       </c>
       <c r="C52">
-        <v>6.743336170164918</v>
+        <v>7.159855025966822</v>
       </c>
       <c r="D52">
-        <v>6.816519031546806</v>
+        <v>7.160301325217478</v>
       </c>
       <c r="E52">
-        <v>6.763839026220825</v>
+        <v>7.178840790421488</v>
       </c>
       <c r="F52">
-        <v>7.17437886425235</v>
+        <v>6.820825198000082</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.151538848409698</v>
+        <v>7.154479096970756</v>
       </c>
       <c r="C53">
-        <v>6.738280856071485</v>
+        <v>7.138987485169032</v>
       </c>
       <c r="D53">
-        <v>6.823002681275599</v>
+        <v>7.13945521927995</v>
       </c>
       <c r="E53">
-        <v>6.770129101914859</v>
+        <v>7.157967200788553</v>
       </c>
       <c r="F53">
-        <v>7.153266044167089</v>
+        <v>6.827804464380351</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7.13060579174631</v>
+        <v>7.133495066020652</v>
       </c>
       <c r="C54">
-        <v>6.733259661170511</v>
+        <v>7.118226297555873</v>
       </c>
       <c r="D54">
-        <v>6.8288799132141</v>
+        <v>7.118715429125166</v>
       </c>
       <c r="E54">
-        <v>6.775874366086522</v>
+        <v>7.137193001883445</v>
       </c>
       <c r="F54">
-        <v>7.132251658512826</v>
+        <v>6.83404727005246</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7.109771196503192</v>
+        <v>7.112608820819799</v>
       </c>
       <c r="C55">
-        <v>6.728262043709284</v>
+        <v>7.097570372329892</v>
       </c>
       <c r="D55">
-        <v>6.834139690216098</v>
+        <v>7.098080794368973</v>
       </c>
       <c r="E55">
-        <v>6.781063903947437</v>
+        <v>7.116517597274397</v>
       </c>
       <c r="F55">
-        <v>7.111335218448549</v>
+        <v>6.839542391810381</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.089034524475244</v>
+        <v>7.091819876738809</v>
       </c>
       <c r="C56">
-        <v>6.723277678666157</v>
+        <v>7.077018646853619</v>
       </c>
       <c r="D56">
-        <v>6.838774976609013</v>
+        <v>7.077550184218715</v>
       </c>
       <c r="E56">
-        <v>6.785689014877631</v>
+        <v>7.095940399005388</v>
       </c>
       <c r="F56">
-        <v>7.090516237598882</v>
+        <v>6.844286759992123</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7.068395244410209</v>
+        <v>7.071127751609337</v>
       </c>
       <c r="C57">
-        <v>6.718296526839191</v>
+        <v>7.056570085925921</v>
       </c>
       <c r="D57">
-        <v>6.842782554608426</v>
+        <v>7.057122497403137</v>
       </c>
       <c r="E57">
-        <v>6.789743552583444</v>
+        <v>7.075460827149784</v>
       </c>
       <c r="F57">
-        <v>7.069794232037363</v>
+        <v>6.848283954551401</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.047852830021139</v>
+        <v>7.050531965708066</v>
       </c>
       <c r="C58">
-        <v>6.71330890029575</v>
+        <v>7.036223681104196</v>
       </c>
       <c r="D58">
-        <v>6.846162706012272</v>
+        <v>7.036796661519216</v>
       </c>
       <c r="E58">
-        <v>6.793224052355026</v>
+        <v>7.055078309438468</v>
       </c>
       <c r="F58">
-        <v>7.049168720270446</v>
+        <v>6.851542889744408</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.027406759105542</v>
+        <v>7.030032041734813</v>
       </c>
       <c r="C59">
-        <v>6.708305517894575</v>
+        <v>7.015978449875174</v>
       </c>
       <c r="D59">
-        <v>6.848918853552827</v>
+        <v>7.01657163278581</v>
       </c>
       <c r="E59">
-        <v>6.796129693972731</v>
+        <v>7.034792280796884</v>
       </c>
       <c r="F59">
-        <v>7.028639223222404</v>
+        <v>6.854076707067049</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.007056514059884</v>
+        <v>7.009627504799456</v>
       </c>
       <c r="C60">
-        <v>6.703277541263883</v>
+        <v>6.995833434961405</v>
       </c>
       <c r="D60">
-        <v>6.851057185720516</v>
+        <v>6.996446395549102</v>
       </c>
       <c r="E60">
-        <v>6.798462169999458</v>
+        <v>7.014602183111847</v>
       </c>
       <c r="F60">
-        <v>7.008205264220221</v>
+        <v>6.855901827966195</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6.98680158171457</v>
+        <v>6.989317882404032</v>
       </c>
       <c r="C61">
-        <v>6.698216598457091</v>
+        <v>6.97578770354612</v>
       </c>
       <c r="D61">
-        <v>6.852586251479947</v>
+        <v>6.976419961668238</v>
       </c>
       <c r="E61">
-        <v>6.800225480474798</v>
+        <v>6.994507464723237</v>
       </c>
       <c r="F61">
-        <v>6.987866368978894</v>
+        <v>6.857037148366053</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6.966641453328061</v>
+        <v>6.9691027044255</v>
       </c>
       <c r="C62">
-        <v>6.693114802762896</v>
+        <v>6.955840346521164</v>
       </c>
       <c r="D62">
-        <v>6.853516595352742</v>
+        <v>6.956491370174056</v>
       </c>
       <c r="E62">
-        <v>6.801425695013899</v>
+        <v>6.974507580404621</v>
       </c>
       <c r="F62">
-        <v>6.96762206558884</v>
+        <v>6.857503374904065</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6.946575623928749</v>
+        <v>6.948981503104018</v>
       </c>
       <c r="C63">
-        <v>6.687964767782913</v>
+        <v>6.935990477747582</v>
       </c>
       <c r="D63">
-        <v>6.85386042326213</v>
+        <v>6.936659686481652</v>
       </c>
       <c r="E63">
-        <v>6.802070713332895</v>
+        <v>6.954601990878166</v>
       </c>
       <c r="F63">
-        <v>6.947471884502009</v>
+        <v>6.857322471027314</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6.926603592426083</v>
+        <v>6.928953813026097</v>
       </c>
       <c r="C64">
-        <v>6.68275961390951</v>
+        <v>6.916237233304759</v>
       </c>
       <c r="D64">
-        <v>6.85363128086276</v>
+        <v>6.916924001922566</v>
       </c>
       <c r="E64">
-        <v>6.802170011129133</v>
+        <v>6.934790162697761</v>
       </c>
       <c r="F64">
-        <v>6.927415358517703</v>
+        <v>6.856517215669655</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6.906724861763865</v>
+        <v>6.909019171112242</v>
       </c>
       <c r="C65">
-        <v>6.677492965973571</v>
+        <v>6.896579770784443</v>
       </c>
       <c r="D65">
-        <v>6.852843774475096</v>
+        <v>6.897283433079217</v>
       </c>
       <c r="E65">
-        <v>6.801734398523836</v>
+        <v>6.91507156802783</v>
       </c>
       <c r="F65">
-        <v>6.907452022769599</v>
+        <v>6.855110845751335</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6.88693893876711</v>
+        <v>6.889177116603659</v>
       </c>
       <c r="C66">
-        <v>6.672158940674695</v>
+        <v>6.877017268492908</v>
       </c>
       <c r="D66">
-        <v>6.851513325511471</v>
+        <v>6.877737121053587</v>
       </c>
       <c r="E66">
-        <v>6.800775795114943</v>
+        <v>6.89544568432624</v>
       </c>
       <c r="F66">
-        <v>6.887581414712098</v>
+        <v>6.85312676891271</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.86724533392946</v>
+        <v>6.869427191047246</v>
       </c>
       <c r="C67">
-        <v>6.666752134948384</v>
+        <v>6.857548924834851</v>
       </c>
       <c r="D67">
-        <v>6.849655957289662</v>
+        <v>6.858284230920316</v>
       </c>
       <c r="E67">
-        <v>6.799307023159793</v>
+        <v>6.875911994214952</v>
       </c>
       <c r="F67">
-        <v>6.867803074099845</v>
+        <v>6.850588333725619</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6.847643561309607</v>
+        <v>6.849768938283987</v>
       </c>
       <c r="C68">
-        <v>6.661267622502419</v>
+        <v>6.838173957682865</v>
       </c>
       <c r="D68">
-        <v>6.847288107967928</v>
+        <v>6.838923950882098</v>
       </c>
       <c r="E68">
-        <v>6.797341619167219</v>
+        <v>6.856469985259364</v>
       </c>
       <c r="F68">
-        <v>6.848116543003346</v>
+        <v>6.847518649827732</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6.82813313850122</v>
+        <v>6.830201904434704</v>
       </c>
       <c r="C69">
-        <v>6.655700932775875</v>
+        <v>6.81889160332927</v>
       </c>
       <c r="D69">
-        <v>6.844426471487656</v>
+        <v>6.819655491651167</v>
       </c>
       <c r="E69">
-        <v>6.794893664208838</v>
+        <v>6.837119149851528</v>
       </c>
       <c r="F69">
-        <v>6.828521365748457</v>
+        <v>6.843940451580113</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6.808713586570041</v>
+        <v>6.81072563788736</v>
       </c>
       <c r="C70">
-        <v>6.65004803758367</v>
+        <v>6.799701116366116</v>
       </c>
       <c r="D70">
-        <v>6.841087862744606</v>
+        <v>6.800478085691366</v>
       </c>
       <c r="E70">
-        <v>6.791977635505358</v>
+        <v>6.817858985022191</v>
       </c>
       <c r="F70">
-        <v>6.809017088988706</v>
+        <v>6.83987598253606</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6.789384429984873</v>
+        <v>6.791339689285222</v>
       </c>
       <c r="C71">
-        <v>6.644305332871212</v>
+        <v>6.780601768370792</v>
       </c>
       <c r="D71">
-        <v>6.837289102190819</v>
+        <v>6.78139098647395</v>
       </c>
       <c r="E71">
-        <v>6.788608275378712</v>
+        <v>6.798688992285913</v>
       </c>
       <c r="F71">
-        <v>6.789603261574949</v>
+        <v>6.835346922469328</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6.770145196521176</v>
+        <v>6.772043611514168</v>
       </c>
       <c r="C72">
-        <v>6.638469619615671</v>
+        <v>6.761592847758306</v>
       </c>
       <c r="D72">
-        <v>6.833046920884402</v>
+        <v>6.762393467760345</v>
       </c>
       <c r="E72">
-        <v>6.784800477158321</v>
+        <v>6.779608677551478</v>
       </c>
       <c r="F72">
-        <v>6.770279434674314</v>
+        <v>6.830374330126268</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.750995417237867</v>
+        <v>6.752836959691676</v>
       </c>
       <c r="C73">
-        <v>6.632538083851333</v>
+        <v>6.742673659198386</v>
       </c>
       <c r="D73">
-        <v>6.828377881470612</v>
+        <v>6.743484822754906</v>
       </c>
       <c r="E73">
-        <v>6.780569187322167</v>
+        <v>6.760617550928263</v>
       </c>
       <c r="F73">
-        <v>6.751045161623255</v>
+        <v>6.824978602412312</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6.73193462635529</v>
+        <v>6.733719291150937</v>
       </c>
       <c r="C74">
-        <v>6.626508276350765</v>
+        <v>6.723843522376058</v>
       </c>
       <c r="D74">
-        <v>6.823298312286942</v>
+        <v>6.724664363504872</v>
       </c>
       <c r="E74">
-        <v>6.775929321243788</v>
+        <v>6.741715126669162</v>
       </c>
       <c r="F74">
-        <v>6.731899998041628</v>
+        <v>6.819179445986784</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.712962361233253</v>
+        <v>6.714690165437073</v>
       </c>
       <c r="C75">
-        <v>6.620378093020308</v>
+        <v>6.705101772463768</v>
       </c>
       <c r="D75">
-        <v>6.817824254393351</v>
+        <v>6.705931420098866</v>
       </c>
       <c r="E75">
-        <v>6.77089569194507</v>
+        <v>6.722900923010842</v>
       </c>
       <c r="F75">
-        <v>6.712843501710415</v>
+        <v>6.812995861446487</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6.694078162302658</v>
+        <v>6.695749144283421</v>
       </c>
       <c r="C76">
-        <v>6.614145757042669</v>
+        <v>6.686447758385599</v>
       </c>
       <c r="D76">
-        <v>6.811971418963211</v>
+        <v>6.687285339927504</v>
       </c>
       <c r="E76">
-        <v>6.765482949776669</v>
+        <v>6.704174462092865</v>
       </c>
       <c r="F76">
-        <v>6.693875232657766</v>
+        <v>6.806446137590783</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.675281573016582</v>
+        <v>6.67689579161102</v>
       </c>
       <c r="C77">
-        <v>6.607809797866584</v>
+        <v>6.667880843094418</v>
       </c>
       <c r="D77">
-        <v>6.805755153357079</v>
+        <v>6.668725486967651</v>
       </c>
       <c r="E77">
-        <v>6.759705532303886</v>
+        <v>6.685535269909307</v>
       </c>
       <c r="F77">
-        <v>6.674994753068009</v>
+        <v>6.799547852688141</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6.656572139808764</v>
+        <v>6.658129673514336</v>
       </c>
       <c r="C78">
-        <v>6.601369032244937</v>
+        <v>6.649400403009728</v>
       </c>
       <c r="D78">
-        <v>6.799190415308553</v>
+        <v>6.650251241059491</v>
       </c>
       <c r="E78">
-        <v>6.75357762281467</v>
+        <v>6.666982876080624</v>
       </c>
       <c r="F78">
-        <v>6.656201627336334</v>
+        <v>6.792317880734537</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.637949412037759</v>
+        <v>6.639450358243544</v>
       </c>
       <c r="C79">
-        <v>6.59482254551393</v>
+        <v>6.631005826812651</v>
       </c>
       <c r="D79">
-        <v>6.792291753420871</v>
+        <v>6.631861997213007</v>
       </c>
       <c r="E79">
-        <v>6.747113116702916</v>
+        <v>6.64851681385132</v>
       </c>
       <c r="F79">
-        <v>6.637495422001287</v>
+        <v>6.784772401933716</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6.619412941949314</v>
+        <v>6.620857416205451</v>
       </c>
       <c r="C80">
-        <v>6.588169673942149</v>
+        <v>6.612696515876193</v>
       </c>
       <c r="D80">
-        <v>6.78507329307328</v>
+        <v>6.613557164899721</v>
       </c>
       <c r="E80">
-        <v>6.740325594455208</v>
+        <v>6.630136620090732</v>
       </c>
       <c r="F80">
-        <v>6.618875705782328</v>
+        <v>6.776926918147134</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.600962284625525</v>
+        <v>6.602350419939789</v>
       </c>
       <c r="C81">
-        <v>6.581409987287349</v>
+        <v>6.594471882866993</v>
       </c>
       <c r="D81">
-        <v>6.777548727340793</v>
+        <v>6.595336167440441</v>
       </c>
       <c r="E81">
-        <v>6.733228300214564</v>
+        <v>6.61184183489362</v>
       </c>
       <c r="F81">
-        <v>6.600342049528376</v>
+        <v>6.76879626624499</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.582596997943244</v>
+        <v>6.583928944116579</v>
       </c>
       <c r="C82">
-        <v>6.574543271474176</v>
+        <v>6.576331351921939</v>
       </c>
       <c r="D82">
-        <v>6.76973131179373</v>
+        <v>6.577198441274928</v>
       </c>
       <c r="E82">
-        <v>6.725834125784533</v>
+        <v>6.593632001990586</v>
       </c>
       <c r="F82">
-        <v>6.581894026238411</v>
+        <v>6.760394636031742</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.56431664253208</v>
+        <v>6.565592565522404</v>
       </c>
       <c r="C83">
-        <v>6.567569515242523</v>
+        <v>6.558274358142111</v>
       </c>
       <c r="D83">
-        <v>6.761633862660464</v>
+        <v>6.559143435425571</v>
       </c>
       <c r="E83">
-        <v>6.718155598756094</v>
+        <v>6.575506668313146</v>
       </c>
       <c r="F83">
-        <v>6.563531211028694</v>
+        <v>6.751735595268658</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.546120781739228</v>
+        <v>6.547340863048297</v>
       </c>
       <c r="C84">
-        <v>6.560488889832704</v>
+        <v>6.540300346597801</v>
       </c>
       <c r="D84">
-        <v>6.753268756765014</v>
+        <v>6.541170610829365</v>
       </c>
       <c r="E84">
-        <v>6.71020487432289</v>
+        <v>6.557465383937324</v>
       </c>
       <c r="F84">
-        <v>6.545253181157645</v>
+        <v>6.742832104920983</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.528008981585029</v>
+        <v>6.529173417681982</v>
       </c>
       <c r="C85">
-        <v>6.553301740791222</v>
+        <v>6.522408772986218</v>
       </c>
       <c r="D85">
-        <v>6.744647934039594</v>
+        <v>6.52327943976189</v>
       </c>
       <c r="E85">
-        <v>6.701993730194318</v>
+        <v>6.539507702393799</v>
       </c>
       <c r="F85">
-        <v>6.527059515948972</v>
+        <v>6.733696546108998</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6.509980806712644</v>
+        <v>6.511089812493296</v>
       </c>
       <c r="C86">
-        <v>6.546008429572792</v>
+        <v>6.504599102001523</v>
       </c>
       <c r="D86">
-        <v>6.735782973976873</v>
+        <v>6.505469405326795</v>
       </c>
       <c r="E86">
-        <v>6.693533633669889</v>
+        <v>6.521633180094397</v>
       </c>
       <c r="F86">
-        <v>6.508949796826829</v>
+        <v>6.724340738750202</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6.49203583066866</v>
+        <v>6.493089632627107</v>
       </c>
       <c r="C87">
-        <v>6.538609322377259</v>
+        <v>6.486870807825461</v>
       </c>
       <c r="D87">
-        <v>6.726684842042749</v>
+        <v>6.48774000081635</v>
       </c>
       <c r="E87">
-        <v>6.684835493882408</v>
+        <v>6.503841376629061</v>
       </c>
       <c r="F87">
-        <v>6.49092360730646</v>
+        <v>6.714775960178459</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.474173621333937</v>
+        <v>6.475172465290547</v>
       </c>
       <c r="C88">
-        <v>6.531104737973713</v>
+        <v>6.469223373631791</v>
       </c>
       <c r="D88">
-        <v>6.717364172515182</v>
+        <v>6.470090729309177</v>
       </c>
       <c r="E88">
-        <v>6.675909829758949</v>
+        <v>6.486131854634384</v>
       </c>
       <c r="F88">
-        <v>6.472980533008766</v>
+        <v>6.705012967681985</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.456393749786483</v>
+        <v>6.457337899742591</v>
       </c>
       <c r="C89">
-        <v>6.523495205116155</v>
+        <v>6.45165629072003</v>
       </c>
       <c r="D89">
-        <v>6.707831269622507</v>
+        <v>6.452521103100661</v>
       </c>
       <c r="E89">
-        <v>6.666766983086801</v>
+        <v>6.468504179628925</v>
       </c>
       <c r="F89">
-        <v>6.455120161662893</v>
+        <v>6.695062021688165</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.438695790557268</v>
+        <v>6.439585527286683</v>
       </c>
       <c r="C90">
-        <v>6.51578141599498</v>
+        <v>6.434169059053237</v>
       </c>
       <c r="D90">
-        <v>6.698096013528115</v>
+        <v>6.435030643250808</v>
       </c>
       <c r="E90">
-        <v>6.657416835140798</v>
+        <v>6.450957920140182</v>
       </c>
       <c r="F90">
-        <v>6.437342082917592</v>
+        <v>6.684932904208537</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.421079320887149</v>
+        <v>6.42191494125533</v>
       </c>
       <c r="C91">
-        <v>6.507964222024777</v>
+        <v>6.416761185983343</v>
       </c>
       <c r="D91">
-        <v>6.688167890923961</v>
+        <v>6.417618879194242</v>
       </c>
       <c r="E91">
-        <v>6.647868914387658</v>
+        <v>6.433492647483726</v>
       </c>
       <c r="F91">
-        <v>6.419645888483049</v>
+        <v>6.674634940514129</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.40354392106487</v>
+        <v>6.40432573700483</v>
       </c>
       <c r="C92">
-        <v>6.500044612394293</v>
+        <v>6.399432186651352</v>
       </c>
       <c r="D92">
-        <v>6.678055994834533</v>
+        <v>6.400285348208478</v>
       </c>
       <c r="E92">
-        <v>6.638132404939388</v>
+        <v>6.416107935813607</v>
       </c>
       <c r="F92">
-        <v>6.402031172078508</v>
+        <v>6.664177018262717</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.386089174147521</v>
+        <v>6.38681751190191</v>
       </c>
       <c r="C93">
-        <v>6.492023696241235</v>
+        <v>6.3821815835643</v>
       </c>
       <c r="D93">
-        <v>6.667769051308087</v>
+        <v>6.383029595137707</v>
       </c>
       <c r="E93">
-        <v>6.628216137140424</v>
+        <v>6.398803362095227</v>
       </c>
       <c r="F93">
-        <v>6.384497529918586</v>
+        <v>6.65356760626088</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.368714665689203</v>
+        <v>6.369389865314336</v>
       </c>
       <c r="C94">
-        <v>6.483902688414498</v>
+        <v>6.365008905883712</v>
       </c>
       <c r="D94">
-        <v>6.657315444948978</v>
+        <v>6.365851171927956</v>
       </c>
       <c r="E94">
-        <v>6.618128602638652</v>
+        <v>6.381578505954708</v>
       </c>
       <c r="F94">
-        <v>6.367044559517526</v>
+        <v>6.642814773458837</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6.351419983670823</v>
+        <v>6.352042398602328</v>
       </c>
       <c r="C95">
-        <v>6.475682897374634</v>
+        <v>6.347913689931917</v>
       </c>
       <c r="D95">
-        <v>6.646703188831093</v>
+        <v>6.348749637293611</v>
       </c>
       <c r="E95">
-        <v>6.607877958132989</v>
+        <v>6.36443294979617</v>
       </c>
       <c r="F95">
-        <v>6.349671860523356</v>
+        <v>6.631926205972084</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6.334204718498023</v>
+        <v>6.334774715105636</v>
       </c>
       <c r="C96">
-        <v>6.467365714282463</v>
+        <v>6.330895478079447</v>
       </c>
       <c r="D96">
-        <v>6.635940001343694</v>
+        <v>6.331724556425586</v>
       </c>
       <c r="E96">
-        <v>6.597472040123198</v>
+        <v>6.347366278652128</v>
       </c>
       <c r="F96">
-        <v>6.332379034705649</v>
+        <v>6.620909223641357</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6.317068463029895</v>
+        <v>6.31758642013684</v>
       </c>
       <c r="C97">
-        <v>6.45895260290827</v>
+        <v>6.313953819129772</v>
       </c>
       <c r="D97">
-        <v>6.625033257504526</v>
+        <v>6.314775500577353</v>
       </c>
       <c r="E97">
-        <v>6.586918384425105</v>
+        <v>6.330378080148627</v>
       </c>
       <c r="F97">
-        <v>6.315165685628505</v>
+        <v>6.609770801241469</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.300010812580042</v>
+        <v>6.300477120968691</v>
       </c>
       <c r="C98">
-        <v>6.45044509027259</v>
+        <v>6.297088267940248</v>
       </c>
       <c r="D98">
-        <v>6.613990037117526</v>
+        <v>6.297902046877831</v>
       </c>
       <c r="E98">
-        <v>6.576224214135074</v>
+        <v>6.313467944583502</v>
       </c>
       <c r="F98">
-        <v>6.298031419238643</v>
+        <v>6.598517573401544</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6.283031364859871</v>
+        <v>6.283446426825585</v>
       </c>
       <c r="C99">
-        <v>6.441844758472834</v>
+        <v>6.280298384883115</v>
       </c>
       <c r="D99">
-        <v>6.602817127760479</v>
+        <v>6.281103777972413</v>
       </c>
       <c r="E99">
-        <v>6.565396467925787</v>
+        <v>6.296635464736545</v>
       </c>
       <c r="F99">
-        <v>6.280975843334327</v>
+        <v>6.587155869788131</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6.266129720000014</v>
+        <v>6.266493948874446</v>
       </c>
       <c r="C100">
-        <v>6.43315324039315</v>
+        <v>6.263583736217563</v>
       </c>
       <c r="D100">
-        <v>6.591521015013218</v>
+        <v>6.264380281784593</v>
       </c>
       <c r="E100">
-        <v>6.554441803697718</v>
+        <v>6.279880235948919</v>
       </c>
       <c r="F100">
-        <v>6.263998567514837</v>
+        <v>6.575691703637459</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.249305480395891</v>
+        <v>6.249619300212611</v>
       </c>
       <c r="C101">
-        <v>6.4243721940531</v>
+        <v>6.246943893223333</v>
       </c>
       <c r="D101">
-        <v>6.580107917874106</v>
+        <v>6.24773115130349</v>
       </c>
       <c r="E101">
-        <v>6.543366598768185</v>
+        <v>6.263201856068038</v>
       </c>
       <c r="F101">
-        <v>6.247099203540191</v>
+        <v>6.564130812527285</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.232558250924315</v>
+        <v>6.232822095861533</v>
       </c>
       <c r="C102">
-        <v>6.41550331955054</v>
+        <v>6.23037843253199</v>
       </c>
       <c r="D102">
-        <v>6.56858379114084</v>
+        <v>6.231155984274411</v>
       </c>
       <c r="E102">
-        <v>6.532176967629931</v>
+        <v>6.246599925372511</v>
       </c>
       <c r="F102">
-        <v>6.230277364913861</v>
+        <v>6.552478652246974</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6.215887638673211</v>
+        <v>6.216101952753691</v>
       </c>
       <c r="C103">
-        <v>6.40654834446934</v>
+        <v>6.213886935799722</v>
       </c>
       <c r="D103">
-        <v>6.556954322478718</v>
+        <v>6.214654383073126</v>
       </c>
       <c r="E103">
-        <v>6.520878773733539</v>
+        <v>6.230074046619592</v>
       </c>
       <c r="F103">
-        <v>6.21353266712881</v>
+        <v>6.540740415265573</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6.199293252947924</v>
+        <v>6.199458489725237</v>
       </c>
       <c r="C104">
-        <v>6.397509017491868</v>
+        <v>6.197468989281191</v>
       </c>
       <c r="D104">
-        <v>6.545224977318787</v>
+        <v>6.19822595443824</v>
       </c>
       <c r="E104">
-        <v>6.509477631891797</v>
+        <v>6.213623824938105</v>
       </c>
       <c r="F104">
-        <v>6.196864727512502</v>
+        <v>6.528921049643267</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6.182774705547812</v>
+        <v>6.182891327506483</v>
       </c>
       <c r="C105">
-        <v>6.388387106333939</v>
+        <v>6.181124184199351</v>
       </c>
       <c r="D105">
-        <v>6.533400939507196</v>
+        <v>6.181870309303706</v>
       </c>
       <c r="E105">
-        <v>6.497978920722163</v>
+        <v>6.197248867846864</v>
       </c>
       <c r="F105">
-        <v>6.180273165119907</v>
+        <v>6.517025256066922</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.166331610195615</v>
+        <v>6.166400088710495</v>
       </c>
       <c r="C106">
-        <v>6.379184383249292</v>
+        <v>6.164852115965243</v>
       </c>
       <c r="D106">
-        <v>6.521487226068269</v>
+        <v>6.16558706264593</v>
       </c>
       <c r="E106">
-        <v>6.486387777922164</v>
+        <v>6.180948785238457</v>
       </c>
       <c r="F106">
-        <v>6.163757601305867</v>
+        <v>6.50505751773446</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6.149963583029408</v>
+        <v>6.149984397826768</v>
       </c>
       <c r="C107">
-        <v>6.369902633025147</v>
+        <v>6.148652384490777</v>
       </c>
       <c r="D107">
-        <v>6.509488576986955</v>
+        <v>6.149375833259084</v>
       </c>
       <c r="E107">
-        <v>6.474709146352473</v>
+        <v>6.164723189300148</v>
       </c>
       <c r="F107">
-        <v>6.147317659401392</v>
+        <v>6.493022093301946</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6.133670242341651</v>
+        <v>6.133643881208525</v>
       </c>
       <c r="C108">
-        <v>6.360543640299019</v>
+        <v>6.132524593903027</v>
       </c>
       <c r="D108">
-        <v>6.497409540316069</v>
+        <v>6.133236243669693</v>
       </c>
       <c r="E108">
-        <v>6.462947713095649</v>
+        <v>6.148571694551771</v>
       </c>
       <c r="F108">
-        <v>6.130952964137257</v>
+        <v>6.480923044286153</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6.117451208489496</v>
+        <v>6.11737816706574</v>
       </c>
       <c r="C109">
-        <v>6.351109186642991</v>
+        <v>6.11646835225052</v>
       </c>
       <c r="D109">
-        <v>6.485254492090996</v>
+        <v>6.117167919941833</v>
       </c>
       <c r="E109">
-        <v>6.451108012722087</v>
+        <v>6.13249391778175</v>
       </c>
       <c r="F109">
-        <v>6.114663142353251</v>
+        <v>6.468764227301391</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6.1013061040382</v>
+        <v>6.101186885455441</v>
       </c>
       <c r="C110">
-        <v>6.341601052390417</v>
+        <v>6.100483271730459</v>
       </c>
       <c r="D110">
-        <v>6.473027575069543</v>
+        <v>6.101170491560197</v>
       </c>
       <c r="E110">
-        <v>6.439194341965925</v>
+        <v>6.116489478023626</v>
       </c>
       <c r="F110">
-        <v>6.09844782295183</v>
+        <v>6.456549320409816</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6.085234553669849</v>
+        <v>6.085069668271154</v>
       </c>
       <c r="C111">
-        <v>6.33202100931776</v>
+        <v>6.084568968130347</v>
       </c>
       <c r="D111">
-        <v>6.460732785069383</v>
+        <v>6.085243591320381</v>
       </c>
       <c r="E111">
-        <v>6.427210837821002</v>
+        <v>6.100557996577651</v>
       </c>
       <c r="F111">
-        <v>6.08230663625687</v>
+        <v>6.444281819431845</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6.069236184172584</v>
+        <v>6.069026149236233</v>
       </c>
       <c r="C112">
-        <v>6.32237081879394</v>
+        <v>6.068725061055519</v>
       </c>
       <c r="D112">
-        <v>6.448373928281661</v>
+        <v>6.069386855183881</v>
       </c>
       <c r="E112">
-        <v>6.415161452061334</v>
+        <v>6.084699096923494</v>
       </c>
       <c r="F112">
-        <v>6.066239214650407</v>
+        <v>6.431965051463098</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6.053310624381049</v>
+        <v>6.05305596389182</v>
       </c>
       <c r="C113">
-        <v>6.312652229751795</v>
+        <v>6.052951173692233</v>
       </c>
       <c r="D113">
-        <v>6.435954640616171</v>
+        <v>6.053599922224022</v>
       </c>
       <c r="E113">
-        <v>6.4030499617243</v>
+        <v>6.068912404749114</v>
       </c>
       <c r="F113">
-        <v>6.05024519225773</v>
+        <v>6.419602185229604</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6.037457505269277</v>
+        <v>6.037158749590033</v>
       </c>
       <c r="C114">
-        <v>6.302866977059989</v>
+        <v>6.037246932592457</v>
       </c>
       <c r="D114">
-        <v>6.423478397831793</v>
+        <v>6.037882434369964</v>
       </c>
       <c r="E114">
-        <v>6.390879978156282</v>
+        <v>6.053197547919814</v>
       </c>
       <c r="F114">
-        <v>6.034324205106651</v>
+        <v>6.407196230823245</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6.021676459809882</v>
+        <v>6.021334145484194</v>
       </c>
       <c r="C115">
-        <v>6.293016790414309</v>
+        <v>6.021611967864428</v>
       </c>
       <c r="D115">
-        <v>6.410948527411013</v>
+        <v>6.022234036590574</v>
       </c>
       <c r="E115">
-        <v>6.378654959082234</v>
+        <v>6.037554156432745</v>
       </c>
       <c r="F115">
-        <v>6.018475890871473</v>
+        <v>6.394750058753945</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6.00596712302573</v>
+        <v>6.005581792518999</v>
       </c>
       <c r="C116">
-        <v>6.283103358045762</v>
+        <v>6.006045912705777</v>
       </c>
       <c r="D116">
-        <v>6.398368196108724</v>
+        <v>6.006654376416464</v>
       </c>
       <c r="E116">
-        <v>6.366378201718945</v>
+        <v>6.02198186244121</v>
       </c>
       <c r="F116">
-        <v>6.002699889159812</v>
+        <v>6.382266393566471</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5.990329131965196</v>
+        <v>5.989901333423709</v>
       </c>
       <c r="C117">
-        <v>6.27312837400408</v>
+        <v>5.990548403611724</v>
       </c>
       <c r="D117">
-        <v>6.385740439075413</v>
+        <v>5.991143104128965</v>
       </c>
       <c r="E117">
-        <v>6.354052863850391</v>
+        <v>6.006480300190645</v>
       </c>
       <c r="F117">
-        <v>5.986995841391852</v>
+        <v>6.369747834535953</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5.974762125670509</v>
+        <v>5.974292412700515</v>
       </c>
       <c r="C118">
-        <v>6.263093516221858</v>
+        <v>5.975119080170568</v>
       </c>
       <c r="D118">
-        <v>6.373068148467094</v>
+        <v>5.975699872806678</v>
       </c>
       <c r="E118">
-        <v>6.341681957184148</v>
+        <v>5.991049106025278</v>
       </c>
       <c r="F118">
-        <v>5.971363390722194</v>
+        <v>6.357196848229775</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.959265745168394</v>
+        <v>5.958754676618064</v>
       </c>
       <c r="C119">
-        <v>6.253000405410775</v>
+        <v>5.959757584907668</v>
       </c>
       <c r="D119">
-        <v>6.360354088694335</v>
+        <v>5.960324337755652</v>
       </c>
       <c r="E119">
-        <v>6.329268362207871</v>
+        <v>5.975687918374555</v>
       </c>
       <c r="F119">
-        <v>5.955802182100967</v>
+        <v>6.344615787292041</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5.943839633452336</v>
+        <v>5.943287773201551</v>
       </c>
       <c r="C120">
-        <v>6.242850676897883</v>
+        <v>5.94446356342002</v>
       </c>
       <c r="D120">
-        <v>6.347600899509265</v>
+        <v>5.945016157080621</v>
       </c>
       <c r="E120">
-        <v>6.316814829678894</v>
+        <v>5.960396377708786</v>
       </c>
       <c r="F120">
-        <v>5.94031186228957</v>
+        <v>6.33200688684461</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5.928483435466134</v>
+        <v>5.927891352223586</v>
       </c>
       <c r="C121">
-        <v>6.232645931100731</v>
+        <v>5.929236664026834</v>
       </c>
       <c r="D121">
-        <v>6.334811100965599</v>
+        <v>5.929774991089947</v>
       </c>
       <c r="E121">
-        <v>6.304323988293572</v>
+        <v>5.945174126551326</v>
       </c>
       <c r="F121">
-        <v>5.924892079786658</v>
+        <v>6.31937227428742</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5.913196798085369</v>
+        <v>5.912565065197202</v>
       </c>
       <c r="C122">
-        <v>6.222387730053289</v>
+        <v>5.914076537922826</v>
       </c>
       <c r="D122">
-        <v>6.321987101794132</v>
+        <v>5.914600502489746</v>
       </c>
       <c r="E122">
-        <v>6.291798346950674</v>
+        <v>5.930020809442961</v>
       </c>
       <c r="F122">
-        <v>5.909542484725655</v>
+        <v>6.306713975135975</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5.897979370123121</v>
+        <v>5.89730856536472</v>
       </c>
       <c r="C123">
-        <v>6.212077622462664</v>
+        <v>5.898982839011843</v>
       </c>
       <c r="D123">
-        <v>6.309131191957489</v>
+        <v>5.899492356370533</v>
       </c>
       <c r="E123">
-        <v>6.279240301101285</v>
+        <v>5.914936072924713</v>
       </c>
       <c r="F123">
-        <v>5.894262729151977</v>
+        <v>6.29403391362831</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5.882830802285946</v>
+        <v>5.882121507691484</v>
       </c>
       <c r="C124">
-        <v>6.201717128001484</v>
+        <v>5.883955223799955</v>
       </c>
       <c r="D124">
-        <v>6.296245570553556</v>
+        <v>5.884450219943095</v>
       </c>
       <c r="E124">
-        <v>6.266652145578472</v>
+        <v>5.899919565542335</v>
       </c>
       <c r="F124">
-        <v>5.879052466821011</v>
+        <v>6.281333924515588</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5.867750747154624</v>
+        <v>5.867003548855847</v>
       </c>
       <c r="C125">
-        <v>6.191307743590502</v>
+        <v>5.868993351486722</v>
       </c>
       <c r="D125">
-        <v>6.283332339277182</v>
+        <v>5.869473762717126</v>
       </c>
       <c r="E125">
-        <v>6.254036075650894</v>
+        <v>5.884970937798879</v>
       </c>
       <c r="F125">
-        <v>5.863911353183677</v>
+        <v>6.268615748895568</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5.852738859183353</v>
+        <v>5.851954347240764</v>
       </c>
       <c r="C126">
-        <v>6.180850930936801</v>
+        <v>5.854096883697745</v>
       </c>
       <c r="D126">
-        <v>6.270393504617741</v>
+        <v>5.854562656271993</v>
       </c>
       <c r="E126">
-        <v>6.241394157825828</v>
+        <v>5.870089842163361</v>
       </c>
       <c r="F126">
-        <v>5.848839045203128</v>
+        <v>6.255881048012411</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5.837794794735447</v>
+        <v>5.836973562926563</v>
       </c>
       <c r="C127">
-        <v>6.170348131449611</v>
+        <v>5.839265484607167</v>
       </c>
       <c r="D127">
-        <v>6.257430943809366</v>
+        <v>5.83971657429104</v>
       </c>
       <c r="E127">
-        <v>6.228728399684374</v>
+        <v>5.855275933050452</v>
       </c>
       <c r="F127">
-        <v>5.833835201855511</v>
+        <v>6.243131397718307</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5.822918211995566</v>
+        <v>5.822060857680304</v>
       </c>
       <c r="C128">
-        <v>6.159800760555313</v>
+        <v>5.824498820798099</v>
       </c>
       <c r="D128">
-        <v>6.244446505184163</v>
+        <v>5.82493519254627</v>
       </c>
       <c r="E128">
-        <v>6.2160407172273</v>
+        <v>5.840528866791963</v>
       </c>
       <c r="F128">
-        <v>5.818899483727503</v>
+        <v>6.230368301360055</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5.808108770948827</v>
+        <v>5.807215894949772</v>
       </c>
       <c r="C129">
-        <v>6.149210200695043</v>
+        <v>5.809796561188079</v>
       </c>
       <c r="D129">
-        <v>6.231441943930998</v>
+        <v>5.810218188742489</v>
       </c>
       <c r="E129">
-        <v>6.203332932180392</v>
+        <v>5.825848301645873</v>
       </c>
       <c r="F129">
-        <v>5.804031553078332</v>
+        <v>6.217593186742106</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5.793366133407451</v>
+        <v>5.792438339853289</v>
       </c>
       <c r="C130">
-        <v>6.138577816406775</v>
+        <v>5.795158377094027</v>
       </c>
       <c r="D130">
-        <v>6.218418927151383</v>
+        <v>5.795565242674876</v>
       </c>
       <c r="E130">
-        <v>6.190606752757395</v>
+        <v>5.811233897756974</v>
       </c>
       <c r="F130">
-        <v>5.78923107367363</v>
+        <v>6.204807413018897</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5.778689963068117</v>
+        <v>5.777727859172054</v>
       </c>
       <c r="C131">
-        <v>6.127904943082741</v>
+        <v>5.780583942025322</v>
       </c>
       <c r="D131">
-        <v>6.205378995702133</v>
+        <v>5.780976035999926</v>
       </c>
       <c r="E131">
-        <v>6.177863860396702</v>
+        <v>5.796685317156661</v>
       </c>
       <c r="F131">
-        <v>5.774497711189387</v>
+        <v>6.192012272340474</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5.76407992538909</v>
+        <v>5.763084121342681</v>
       </c>
       <c r="C132">
-        <v>6.117192888647899</v>
+        <v>5.766072931779449</v>
       </c>
       <c r="D132">
-        <v>6.192323699996154</v>
+        <v>5.766450252298545</v>
       </c>
       <c r="E132">
-        <v>6.165105849432748</v>
+        <v>5.78220222375189</v>
       </c>
       <c r="F132">
-        <v>5.759831132884545</v>
+        <v>6.179208991502602</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5.749535687566962</v>
+        <v>5.748506796447034</v>
       </c>
       <c r="C133">
-        <v>6.10644292920067</v>
+        <v>5.751625024326933</v>
       </c>
       <c r="D133">
-        <v>6.179254499938546</v>
+        <v>5.751987577092351</v>
       </c>
       <c r="E133">
-        <v>6.152334214279398</v>
+        <v>5.767784283296018</v>
       </c>
       <c r="F133">
-        <v>5.745231007668845</v>
+        <v>6.166398744081082</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5.73505691858842</v>
+        <v>5.733995556207583</v>
       </c>
       <c r="C134">
-        <v>6.095656318424233</v>
+        <v>5.737239899760696</v>
       </c>
       <c r="D134">
-        <v>6.166172773792176</v>
+        <v>5.737587697681076</v>
       </c>
       <c r="E134">
-        <v>6.139550391772141</v>
+        <v>5.753431163392107</v>
       </c>
       <c r="F134">
-        <v>5.730697006047233</v>
+        <v>6.153582647173792</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5.720643289250146</v>
+        <v>5.719550073974711</v>
       </c>
       <c r="C135">
-        <v>6.084834281528711</v>
+        <v>5.722917240337214</v>
       </c>
       <c r="D135">
-        <v>6.153079803734028</v>
+        <v>5.723250303250818</v>
       </c>
       <c r="E135">
-        <v>6.126755771349469</v>
+        <v>5.739142533469228</v>
       </c>
       <c r="F135">
-        <v>5.716228800223374</v>
+        <v>6.14076174755342</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5.706294472075439</v>
+        <v>5.705170024720298</v>
       </c>
       <c r="C136">
-        <v>6.073978021260579</v>
+        <v>5.708656730320757</v>
       </c>
       <c r="D136">
-        <v>6.139976873754541</v>
+        <v>5.70897508475334</v>
       </c>
       <c r="E136">
-        <v>6.11395167258632</v>
+        <v>5.724918064768837</v>
       </c>
       <c r="F136">
-        <v>5.7018260640057</v>
+        <v>6.127937063625776</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5.692010141294108</v>
+        <v>5.690855085030463</v>
       </c>
       <c r="C137">
-        <v>6.063088709349826</v>
+        <v>5.694458056055368</v>
       </c>
       <c r="D137">
-        <v>6.126865191235889</v>
+        <v>5.694761734915797</v>
       </c>
       <c r="E137">
-        <v>6.101139326284039</v>
+        <v>5.710757430343449</v>
       </c>
       <c r="F137">
-        <v>5.687488472828444</v>
+        <v>6.115109563078964</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5.677789972873581</v>
+        <v>5.676604933102539</v>
       </c>
       <c r="C138">
-        <v>6.052167492636764</v>
+        <v>5.680320905870185</v>
       </c>
       <c r="D138">
-        <v>6.113745895210624</v>
+        <v>5.680609948237467</v>
       </c>
       <c r="E138">
-        <v>6.088319940009165</v>
+        <v>5.696660305026488</v>
       </c>
       <c r="F138">
-        <v>5.673215703822486</v>
+        <v>6.10228014714248</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5.663633644521859</v>
+        <v>5.662419248723459</v>
       </c>
       <c r="C139">
-        <v>6.041215492758633</v>
+        <v>5.66624497004553</v>
       </c>
       <c r="D139">
-        <v>6.100620061466667</v>
+        <v>5.666519420907473</v>
       </c>
       <c r="E139">
-        <v>6.075494657497852</v>
+        <v>5.682626365433172</v>
       </c>
       <c r="F139">
-        <v>5.659007435605927</v>
+        <v>6.089449682171323</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5.649540835637103</v>
+        <v>5.648297713271354</v>
       </c>
       <c r="C140">
-        <v>6.030233804080976</v>
+        <v>5.65222994083885</v>
       </c>
       <c r="D140">
-        <v>6.087488745613807</v>
+        <v>5.65248985085347</v>
       </c>
       <c r="E140">
-        <v>6.062664565377291</v>
+        <v>5.668655289945455</v>
       </c>
       <c r="F140">
-        <v>5.644863348430704</v>
+        <v>6.076619005163551</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5.635511227290806</v>
+        <v>5.634240009710449</v>
       </c>
       <c r="C141">
-        <v>6.019223496877996</v>
+        <v>5.638275512364878</v>
       </c>
       <c r="D141">
-        <v>6.074352946153954</v>
+        <v>5.638520937661319</v>
       </c>
       <c r="E141">
-        <v>6.049830694109755</v>
+        <v>5.654746758692105</v>
       </c>
       <c r="F141">
-        <v>5.630783124132829</v>
+        <v>6.063788904025453</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5.621544502240195</v>
+        <v>5.620245822581449</v>
       </c>
       <c r="C142">
-        <v>6.008185617515915</v>
+        <v>5.624381380651316</v>
       </c>
       <c r="D142">
-        <v>6.061213606219702</v>
+        <v>5.624612382579756</v>
       </c>
       <c r="E142">
-        <v>6.036994041453488</v>
+        <v>5.640900453550606</v>
       </c>
       <c r="F142">
-        <v>5.616766446123207</v>
+        <v>6.05096011176775</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5.6076403449264</v>
+        <v>5.606314837982787</v>
       </c>
       <c r="C143">
-        <v>5.997121185712359</v>
+        <v>5.610547243560249</v>
       </c>
       <c r="D143">
-        <v>6.048071625185737</v>
+        <v>5.61076388852545</v>
       </c>
       <c r="E143">
-        <v>6.02415555676906</v>
+        <v>5.627116058120595</v>
       </c>
       <c r="F143">
-        <v>5.602812999378441</v>
+        <v>6.038133349358767</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5.593798441439806</v>
+        <v>5.592446743573436</v>
       </c>
       <c r="C144">
-        <v>5.986031198514271</v>
+        <v>5.596772800765661</v>
       </c>
       <c r="D144">
-        <v>6.03492787515088</v>
+        <v>5.596975160005403</v>
       </c>
       <c r="E144">
-        <v>6.0113161326059</v>
+        <v>5.613393257720516</v>
       </c>
       <c r="F144">
-        <v>5.588922470496577</v>
+        <v>6.025309296749528</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5.580018479505073</v>
+        <v>5.578641228571422</v>
       </c>
       <c r="C145">
-        <v>5.974916629130104</v>
+        <v>5.583057753768153</v>
       </c>
       <c r="D145">
-        <v>6.021783185534649</v>
+        <v>5.583245903167122</v>
       </c>
       <c r="E145">
-        <v>5.998476631527588</v>
+        <v>5.599731739378151</v>
       </c>
       <c r="F145">
-        <v>5.575094547694468</v>
+        <v>6.012488587559426</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5.566300148484525</v>
+        <v>5.564897983731719</v>
       </c>
       <c r="C146">
-        <v>5.963778426772138</v>
+        <v>5.569401805803404</v>
       </c>
       <c r="D146">
-        <v>6.008638335228929</v>
+        <v>5.5695758257316</v>
       </c>
       <c r="E146">
-        <v>5.985637879797825</v>
+        <v>5.586131191809533</v>
       </c>
       <c r="F146">
-        <v>5.561328920582655</v>
+        <v>5.999671836492108</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5.552643139398989</v>
+        <v>5.551216701342825</v>
       </c>
       <c r="C147">
-        <v>5.952617518763934</v>
+        <v>5.555804661883865</v>
       </c>
       <c r="D147">
-        <v>5.995494072975863</v>
+        <v>5.555964636994721</v>
       </c>
       <c r="E147">
-        <v>5.972800663319062</v>
+        <v>5.572591305422678</v>
       </c>
       <c r="F147">
-        <v>5.54762528038234</v>
+        <v>5.986859627306777</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5.539047144871857</v>
+        <v>5.537597075222172</v>
       </c>
       <c r="C148">
-        <v>5.941434809467215</v>
+        <v>5.542266028733956</v>
       </c>
       <c r="D148">
-        <v>5.982351123782097</v>
+        <v>5.542412047830696</v>
       </c>
       <c r="E148">
-        <v>5.959965715958047</v>
+        <v>5.559111772292596</v>
       </c>
       <c r="F148">
-        <v>5.533983319849731</v>
+        <v>5.9740525136503</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5.525511859110847</v>
+        <v>5.524038800715249</v>
       </c>
       <c r="C149">
-        <v>5.930231181162318</v>
+        <v>5.528785614775326</v>
       </c>
       <c r="D149">
-        <v>5.969210177872661</v>
+        <v>5.528917770636586</v>
       </c>
       <c r="E149">
-        <v>5.947133759069432</v>
+        <v>5.545692286149733</v>
       </c>
       <c r="F149">
-        <v>5.520402733290867</v>
+        <v>5.961251021966493</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5.512036977927591</v>
+        <v>5.510541574670602</v>
       </c>
       <c r="C150">
-        <v>5.91900749427029</v>
+        <v>5.515363130133633</v>
       </c>
       <c r="D150">
-        <v>5.95607187573809</v>
+        <v>5.515481519359194</v>
       </c>
       <c r="E150">
-        <v>5.934305475903476</v>
+        <v>5.532332542371848</v>
       </c>
       <c r="F150">
-        <v>5.506883216545161</v>
+        <v>5.948455657561982</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5.49862219874812</v>
+        <v>5.497105095444422</v>
       </c>
       <c r="C151">
-        <v>5.907764588190743</v>
+        <v>5.501998286568215</v>
       </c>
       <c r="D151">
-        <v>5.94293684159709</v>
+        <v>5.50210300945286</v>
       </c>
       <c r="E151">
-        <v>5.92148151103549</v>
+        <v>5.519032238001757</v>
       </c>
       <c r="F151">
-        <v>5.493424466927384</v>
+        <v>5.935666901128421</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5.485267220564634</v>
+        <v>5.483729062891922</v>
       </c>
       <c r="C152">
-        <v>5.896503281378292</v>
+        <v>5.488690797503351</v>
       </c>
       <c r="D152">
-        <v>5.9298056771619</v>
+        <v>5.488781957874362</v>
       </c>
       <c r="E152">
-        <v>5.908662477511643</v>
+        <v>5.505791071684279</v>
       </c>
       <c r="F152">
-        <v>5.480026183277563</v>
+        <v>5.922885196555062</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5.471971743918271</v>
+        <v>5.470413178361763</v>
       </c>
       <c r="C153">
-        <v>5.885224371824383</v>
+        <v>5.475440377974362</v>
       </c>
       <c r="D153">
-        <v>5.916678955127277</v>
+        <v>5.475518083082175</v>
       </c>
       <c r="E153">
-        <v>5.895848970531794</v>
+        <v>5.49260874367835</v>
       </c>
       <c r="F153">
-        <v>5.466688065935921</v>
+        <v>5.910110982166296</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5.458735470915391</v>
+        <v>5.45715714467936</v>
       </c>
       <c r="C154">
-        <v>5.873928636925902</v>
+        <v>5.462246744618064</v>
       </c>
       <c r="D154">
-        <v>5.903557203056433</v>
+        <v>5.462311104998082</v>
       </c>
       <c r="E154">
-        <v>5.883041555196821</v>
+        <v>5.479484955847852</v>
       </c>
       <c r="F154">
-        <v>5.453409816721581</v>
+        <v>5.897344671386767</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5.445558105230517</v>
+        <v>5.443960666146923</v>
       </c>
       <c r="C155">
-        <v>5.862616833932791</v>
+        <v>5.449109615674297</v>
       </c>
       <c r="D155">
-        <v>5.890440941861067</v>
+        <v>5.449160745022823</v>
       </c>
       <c r="E155">
-        <v>5.870240758373432</v>
+        <v>5.466419411707338</v>
       </c>
       <c r="F155">
-        <v>5.440191138936014</v>
+        <v>5.884586653193717</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5.432439352070199</v>
+        <v>5.43082344853839</v>
       </c>
       <c r="C156">
-        <v>5.851289701769391</v>
+        <v>5.436028710931366</v>
       </c>
       <c r="D156">
-        <v>5.877330668468686</v>
+        <v>5.436066726004205</v>
       </c>
       <c r="E156">
-        <v>5.857447094871216</v>
+        <v>5.45341181630015</v>
       </c>
       <c r="F156">
-        <v>5.427031737373912</v>
+        <v>5.871837299727958</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5.419378918157859</v>
+        <v>5.417745199087304</v>
       </c>
       <c r="C157">
-        <v>5.839947959986333</v>
+        <v>5.423003751749261</v>
       </c>
       <c r="D157">
-        <v>5.864226856637595</v>
+        <v>5.423028772231213</v>
       </c>
       <c r="E157">
-        <v>5.844661053802382</v>
+        <v>5.440461876256096</v>
       </c>
       <c r="F157">
-        <v>5.413931318290034</v>
+        <v>5.859096968582998</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5.406376511742941</v>
+        <v>5.404725626477429</v>
       </c>
       <c r="C158">
-        <v>5.828592309581524</v>
+        <v>5.410034461014699</v>
       </c>
       <c r="D158">
-        <v>5.851129943202525</v>
+        <v>5.410046609434167</v>
       </c>
       <c r="E158">
-        <v>5.831883099732677</v>
+        <v>5.427569299770989</v>
       </c>
       <c r="F158">
-        <v>5.400889589399788</v>
+        <v>5.84636599766504</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5.393431842601959</v>
+        <v>5.391764440839389</v>
       </c>
       <c r="C159">
-        <v>5.817223434916544</v>
+        <v>5.397120563134921</v>
       </c>
       <c r="D159">
-        <v>5.838040361883658</v>
+        <v>5.397119964751804</v>
       </c>
       <c r="E159">
-        <v>5.819113669767296</v>
+        <v>5.414733796647418</v>
       </c>
       <c r="F159">
-        <v>5.387906259876187</v>
+        <v>5.833644702384341</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5.380544622008885</v>
+        <v>5.378861353750439</v>
       </c>
       <c r="C160">
-        <v>5.805842001443271</v>
+        <v>5.384261784035586</v>
       </c>
       <c r="D160">
-        <v>5.824958522877504</v>
+        <v>5.384248566743353</v>
       </c>
       <c r="E160">
-        <v>5.806353189887532</v>
+        <v>5.401955078177388</v>
       </c>
       <c r="F160">
-        <v>5.374981040336028</v>
+        <v>5.820933391310948</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5.367714562721173</v>
+        <v>5.366016078211638</v>
       </c>
       <c r="C161">
-        <v>5.794448657404861</v>
+        <v>5.371457851118246</v>
       </c>
       <c r="D161">
-        <v>5.811884817872553</v>
+        <v>5.371432145363367</v>
       </c>
       <c r="E161">
-        <v>5.793602064237805</v>
+        <v>5.389232857208119</v>
       </c>
       <c r="F161">
-        <v>5.36211364283007</v>
+        <v>5.808232355923228</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5.354941378985291</v>
+        <v>5.353228328650173</v>
       </c>
       <c r="C162">
-        <v>5.783044034451837</v>
+        <v>5.358708493277272</v>
       </c>
       <c r="D162">
-        <v>5.798819608645856</v>
+        <v>5.358670431954856</v>
       </c>
       <c r="E162">
-        <v>5.78086067305522</v>
+        <v>5.37656684811498</v>
       </c>
       <c r="F162">
-        <v>5.349303780841476</v>
+        <v>5.795541869921116</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5.34222478653875</v>
+        <v>5.340497820911903</v>
       </c>
       <c r="C163">
-        <v>5.771628747870755</v>
+        <v>5.346013440862153</v>
       </c>
       <c r="D163">
-        <v>5.785763254924226</v>
+        <v>5.345963159247897</v>
       </c>
       <c r="E163">
-        <v>5.768129380850331</v>
+        <v>5.36395676682071</v>
       </c>
       <c r="F163">
-        <v>5.33655116927592</v>
+        <v>5.7828621973368</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5.329564502581994</v>
+        <v>5.327824272259094</v>
       </c>
       <c r="C164">
-        <v>5.760203397096737</v>
+        <v>5.333372425673414</v>
       </c>
       <c r="D164">
-        <v>5.772716096099946</v>
+        <v>5.333310061334866</v>
       </c>
       <c r="E164">
-        <v>5.755408538841985</v>
+        <v>5.351402330723166</v>
       </c>
       <c r="F164">
-        <v>5.323855524453928</v>
+        <v>5.770193589603783</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5.316960245764609</v>
+        <v>5.315207401349704</v>
       </c>
       <c r="C165">
-        <v>5.748768565838727</v>
+        <v>5.320785180958183</v>
       </c>
       <c r="D165">
-        <v>5.759678456163362</v>
+        <v>5.320710873682397</v>
       </c>
       <c r="E165">
-        <v>5.742698480879977</v>
+        <v>5.338903258731078</v>
       </c>
       <c r="F165">
-        <v>5.311216564103224</v>
+        <v>5.75753628414767</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5.304411736190775</v>
+        <v>5.302646928240494</v>
       </c>
       <c r="C166">
-        <v>5.73732482272828</v>
+        <v>5.30825144137662</v>
       </c>
       <c r="D166">
-        <v>5.746650638531295</v>
+        <v>5.30816533310117</v>
       </c>
       <c r="E166">
-        <v>5.72999951692238</v>
+        <v>5.326459271244838</v>
       </c>
       <c r="F166">
-        <v>5.29863400735106</v>
+        <v>5.744890505475442</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5.291918695421815</v>
+        <v>5.290142574380638</v>
       </c>
       <c r="C167">
-        <v>5.725872721669657</v>
+        <v>5.295770943014112</v>
       </c>
       <c r="D167">
-        <v>5.733632941433111</v>
+        <v>5.29567317773899</v>
       </c>
       <c r="E167">
-        <v>5.717311952209756</v>
+        <v>5.314070090159323</v>
       </c>
       <c r="F167">
-        <v>5.286107574811836</v>
+        <v>5.732256470993703</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5.279480846448648</v>
+        <v>5.277694062603533</v>
       </c>
       <c r="C168">
-        <v>5.714412800727757</v>
+        <v>5.283343423349383</v>
       </c>
       <c r="D168">
-        <v>5.720625648007594</v>
+        <v>5.283234147073684</v>
       </c>
       <c r="E168">
-        <v>5.704636075333606</v>
+        <v>5.301735438824696</v>
       </c>
       <c r="F168">
-        <v>5.273636988386312</v>
+        <v>5.719634386691365</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5.267097913677977</v>
+        <v>5.26530111711376</v>
       </c>
       <c r="C169">
-        <v>5.702945584091547</v>
+        <v>5.270968621251725</v>
       </c>
       <c r="D169">
-        <v>5.707629027209279</v>
+        <v>5.270847981948748</v>
       </c>
       <c r="E169">
-        <v>5.69197215940413</v>
+        <v>5.289455042059178</v>
       </c>
       <c r="F169">
-        <v>5.261221971369206</v>
+        <v>5.707024445197029</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5.254769622938354</v>
+        <v>5.252963463486293</v>
       </c>
       <c r="C170">
-        <v>5.691471583582734</v>
+        <v>5.258646276975082</v>
       </c>
       <c r="D170">
-        <v>5.694643326995248</v>
+        <v>5.2585144244731</v>
       </c>
       <c r="E170">
-        <v>5.679320461947791</v>
+        <v>5.277228626139071</v>
       </c>
       <c r="F170">
-        <v>5.248862248443118</v>
+        <v>5.694426834164386</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5.242495701482044</v>
+        <v>5.240680828663479</v>
       </c>
       <c r="C171">
-        <v>5.679991297031775</v>
+        <v>5.24637613213125</v>
       </c>
       <c r="D171">
-        <v>5.681668797012413</v>
+        <v>5.246233218071909</v>
       </c>
       <c r="E171">
-        <v>5.666681234017287</v>
+        <v>5.265055918805663</v>
       </c>
       <c r="F171">
-        <v>5.236557545657777</v>
+        <v>5.681841731526725</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5.230275877959103</v>
+        <v>5.228452940939428</v>
       </c>
       <c r="C172">
-        <v>5.668505209348218</v>
+        <v>5.234157929698404</v>
       </c>
       <c r="D172">
-        <v>5.668705671963777</v>
+        <v>5.23400410747166</v>
       </c>
       <c r="E172">
-        <v>5.654054713454826</v>
+        <v>5.252936649210858</v>
       </c>
       <c r="F172">
-        <v>5.224307590428865</v>
+        <v>5.669269304256292</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5.218109882403828</v>
+        <v>5.216279529956041</v>
       </c>
       <c r="C173">
-        <v>5.657013788712008</v>
+        <v>5.22199141399395</v>
       </c>
       <c r="D173">
-        <v>5.655754173198171</v>
+        <v>5.221826838756303</v>
       </c>
       <c r="E173">
-        <v>5.641441122622651</v>
+        <v>5.240870547943548</v>
       </c>
       <c r="F173">
-        <v>5.212112111602596</v>
+        <v>5.65670971210308</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5.205997446240561</v>
+        <v>5.204160326698013</v>
       </c>
       <c r="C174">
-        <v>5.645517495589968</v>
+        <v>5.209876330672491</v>
       </c>
       <c r="D174">
-        <v>5.64281450559804</v>
+        <v>5.209701159207488</v>
       </c>
       <c r="E174">
-        <v>5.628840676537485</v>
+        <v>5.228857347017936</v>
       </c>
       <c r="F174">
-        <v>5.199970839264277</v>
+        <v>5.644163108957153</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5.193938302284354</v>
+        <v>5.192095063491869</v>
       </c>
       <c r="C175">
-        <v>5.634016776912174</v>
+        <v>5.197812426719019</v>
       </c>
       <c r="D175">
-        <v>5.629886874636312</v>
+        <v>5.1976268174074</v>
       </c>
       <c r="E175">
-        <v>5.616253580876243</v>
+        <v>5.216896779874539</v>
       </c>
       <c r="F175">
-        <v>5.187883504882845</v>
+        <v>5.63162964030463</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5.181932184717486</v>
+        <v>5.180083473985174</v>
       </c>
       <c r="C176">
-        <v>5.62251206782268</v>
+        <v>5.185799450427243</v>
       </c>
       <c r="D176">
-        <v>5.616971472830921</v>
+        <v>5.185603563217065</v>
       </c>
       <c r="E176">
-        <v>5.603680030773853</v>
+        <v>5.204988581334941</v>
       </c>
       <c r="F176">
-        <v>5.175849841262386</v>
+        <v>5.619109442577454</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5.169978829076472</v>
+        <v>5.168125293149743</v>
       </c>
       <c r="C177">
-        <v>5.611003791104905</v>
+        <v>5.173837151405313</v>
       </c>
       <c r="D177">
-        <v>5.604068484058671</v>
+        <v>5.173631147792892</v>
       </c>
       <c r="E177">
-        <v>5.591120208334496</v>
+        <v>5.193132487623292</v>
       </c>
       <c r="F177">
-        <v>5.163869582535231</v>
+        <v>5.606602648676594</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5.158077972256802</v>
+        <v>5.156220257274591</v>
       </c>
       <c r="C178">
-        <v>5.599492356831968</v>
+        <v>5.16192528055248</v>
       </c>
       <c r="D178">
-        <v>5.591178084105133</v>
+        <v>5.161709323492029</v>
       </c>
       <c r="E178">
-        <v>5.578574291866907</v>
+        <v>5.181328236356598</v>
       </c>
       <c r="F178">
-        <v>5.151942464165899</v>
+        <v>5.594109384546656</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5.146229352512641</v>
+        <v>5.144368103961162</v>
       </c>
       <c r="C179">
-        <v>5.587978167112798</v>
+        <v>5.150063590057473</v>
       </c>
       <c r="D179">
-        <v>5.578300441327196</v>
+        <v>5.149837843935282</v>
       </c>
       <c r="E179">
-        <v>5.566042450019103</v>
+        <v>5.169575566539661</v>
       </c>
       <c r="F179">
-        <v>5.140068222948701</v>
+        <v>5.581629767743719</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5.134432709435703</v>
+        <v>5.132568572107595</v>
       </c>
       <c r="C180">
-        <v>5.57646161234781</v>
+        <v>5.138251833391202</v>
       </c>
       <c r="D180">
-        <v>5.565435717095824</v>
+        <v>5.138016463993861</v>
       </c>
       <c r="E180">
-        <v>5.55352484170516</v>
+        <v>5.157874218531696</v>
       </c>
       <c r="F180">
-        <v>5.128246596953764</v>
+        <v>5.56916391227584</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5.122687783942851</v>
+        <v>5.120821401909741</v>
       </c>
       <c r="C181">
-        <v>5.564943072717615</v>
+        <v>5.126489765288942</v>
       </c>
       <c r="D181">
-        <v>5.552584061802746</v>
+        <v>5.126244939779564</v>
       </c>
       <c r="E181">
-        <v>5.541021617780151</v>
+        <v>5.146223934060216</v>
       </c>
       <c r="F181">
-        <v>5.116477325567677</v>
+        <v>5.556711926733194</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>5.110994318279698</v>
+        <v>5.109126334856898</v>
       </c>
       <c r="C182">
-        <v>5.553422916383746</v>
+        <v>5.114777141753946</v>
       </c>
       <c r="D182">
-        <v>5.539745618097678</v>
+        <v>5.114523028608285</v>
       </c>
       <c r="E182">
-        <v>5.528532924363009</v>
+        <v>5.134624456214031</v>
       </c>
       <c r="F182">
-        <v>5.10476014947254</v>
+        <v>5.544273913759461</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>5.099352056019868</v>
+        <v>5.09748311372056</v>
       </c>
       <c r="C183">
-        <v>5.541901503113976</v>
+        <v>5.103113720037178</v>
       </c>
       <c r="D183">
-        <v>5.526920527182867</v>
+        <v>5.102850489021541</v>
       </c>
       <c r="E183">
-        <v>5.516058899996127</v>
+        <v>5.123075529433654</v>
       </c>
       <c r="F183">
-        <v>5.093094810639191</v>
+        <v>5.531849970511581</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>5.087760742045553</v>
+        <v>5.085891482546291</v>
       </c>
       <c r="C184">
-        <v>5.530379183766856</v>
+        <v>5.091499258635865</v>
       </c>
       <c r="D184">
-        <v>5.514108922092758</v>
+        <v>5.091227080775145</v>
       </c>
       <c r="E184">
-        <v>5.503599673120684</v>
+        <v>5.111576899486499</v>
       </c>
       <c r="F184">
-        <v>5.081481052337568</v>
+        <v>5.51944019096584</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>5.076220122535553</v>
+        <v>5.074351186651001</v>
       </c>
       <c r="C185">
-        <v>5.518856299570947</v>
+        <v>5.079933517285987</v>
       </c>
       <c r="D185">
-        <v>5.501310928574497</v>
+        <v>5.079652564827122</v>
       </c>
       <c r="E185">
-        <v>5.49115536942663</v>
+        <v>5.10012831347543</v>
       </c>
       <c r="F185">
-        <v>5.069918619107242</v>
+        <v>5.507044664162066</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>5.064729944968172</v>
+        <v>5.062861972622235</v>
       </c>
       <c r="C186">
-        <v>5.507333182570313</v>
+        <v>5.0684162569474</v>
       </c>
       <c r="D186">
-        <v>5.488526667266309</v>
+        <v>5.068126703328367</v>
       </c>
       <c r="E186">
-        <v>5.478726108024619</v>
+        <v>5.088729519834559</v>
       </c>
       <c r="F186">
-        <v>5.058407256744233</v>
+        <v>5.494663471313982</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5.053289958120416</v>
+        <v>5.051423588298776</v>
       </c>
       <c r="C187">
-        <v>5.495810152755518</v>
+        <v>5.056947239805825</v>
       </c>
       <c r="D187">
-        <v>5.475756254747815</v>
+        <v>5.056649259619435</v>
       </c>
       <c r="E187">
-        <v>5.46631200164413</v>
+        <v>5.077380268315488</v>
       </c>
       <c r="F187">
-        <v>5.046946712315544</v>
+        <v>5.48229669432262</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5.041899912049605</v>
+        <v>5.040035782772454</v>
       </c>
       <c r="C188">
-        <v>5.484287526058005</v>
+        <v>5.045526229255083</v>
       </c>
       <c r="D188">
-        <v>5.462999802341263</v>
+        <v>5.045219998247057</v>
       </c>
       <c r="E188">
-        <v>5.453913155627198</v>
+        <v>5.066080309968549</v>
       </c>
       <c r="F188">
-        <v>5.035536734144552</v>
+        <v>5.469944410212856</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5.030559558081629</v>
+        <v>5.028698306381474</v>
       </c>
       <c r="C189">
-        <v>5.472765608608357</v>
+        <v>5.034152989895689</v>
       </c>
       <c r="D189">
-        <v>5.450257412010783</v>
+        <v>5.033838684917827</v>
       </c>
       <c r="E189">
-        <v>5.441529672963587</v>
+        <v>5.054829397148261</v>
       </c>
       <c r="F189">
-        <v>5.024177071804342</v>
+        <v>5.457606692920885</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5.019268648813655</v>
+        <v>5.017410910708008</v>
       </c>
       <c r="C190">
-        <v>5.461244698600368</v>
+        <v>5.022827287527288</v>
       </c>
       <c r="D190">
-        <v>5.437529183622964</v>
+        <v>5.02250508650658</v>
       </c>
       <c r="E190">
-        <v>5.429161650883827</v>
+        <v>5.043627283511459</v>
       </c>
       <c r="F190">
-        <v>5.012867476154994</v>
+        <v>5.445283613628751</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5.008026938113256</v>
+        <v>5.006173348560981</v>
       </c>
       <c r="C191">
-        <v>5.449725085038603</v>
+        <v>5.011548889136072</v>
       </c>
       <c r="D191">
-        <v>5.424815213902398</v>
+        <v>5.011218971054581</v>
       </c>
       <c r="E191">
-        <v>5.416809180407796</v>
+        <v>5.032473723999224</v>
       </c>
       <c r="F191">
-        <v>5.001607699247555</v>
+        <v>5.432975231697833</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>4.996834181100843</v>
+        <v>4.9949853739781</v>
       </c>
       <c r="C192">
-        <v>5.438207048892475</v>
+        <v>5.000317562895384</v>
       </c>
       <c r="D192">
-        <v>5.412115594418826</v>
+        <v>4.999980107785219</v>
       </c>
       <c r="E192">
-        <v>5.404472348519086</v>
+        <v>5.021368474824039</v>
       </c>
       <c r="F192">
-        <v>4.990397494372075</v>
+        <v>5.420681613539525</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>4.985690134138103</v>
+        <v>4.983846742220473</v>
       </c>
       <c r="C193">
-        <v>5.426690865914578</v>
+        <v>4.989133078150266</v>
       </c>
       <c r="D193">
-        <v>5.399430411226675</v>
+        <v>4.988788267047986</v>
       </c>
       <c r="E193">
-        <v>5.392151238853419</v>
+        <v>5.010311293472331</v>
       </c>
       <c r="F193">
-        <v>4.979236616049191</v>
+        <v>5.408402821588823</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>4.97459455483064</v>
+        <v>4.972757209765222</v>
       </c>
       <c r="C194">
-        <v>5.415176803790848</v>
+        <v>4.977995205415733</v>
       </c>
       <c r="D194">
-        <v>5.386759747807822</v>
+        <v>4.977643220345694</v>
       </c>
       <c r="E194">
-        <v>5.379845930563514</v>
+        <v>4.999301938704661</v>
       </c>
       <c r="F194">
-        <v>4.968124820018433</v>
+        <v>5.396138915394952</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>4.963547202026855</v>
+        <v>4.961716534294229</v>
       </c>
       <c r="C195">
-        <v>5.403665123352946</v>
+        <v>4.966903716369432</v>
       </c>
       <c r="D195">
-        <v>5.374103684054176</v>
+        <v>4.966544740321937</v>
       </c>
       <c r="E195">
-        <v>5.367556496803278</v>
+        <v>4.988340170533523</v>
       </c>
       <c r="F195">
-        <v>4.957061863237488</v>
+        <v>5.383889952783428</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>4.952547835801314</v>
+        <v>4.950724474693348</v>
       </c>
       <c r="C196">
-        <v>5.392156075510492</v>
+        <v>4.955858383840779</v>
       </c>
       <c r="D196">
-        <v>5.361462296370593</v>
+        <v>4.955492600766651</v>
       </c>
       <c r="E196">
-        <v>5.355283009380901</v>
+        <v>4.977425750216558</v>
       </c>
       <c r="F196">
-        <v>4.946047503927287</v>
+        <v>5.371655976979916</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>4.941596217443426</v>
+        <v>4.939780791050029</v>
       </c>
       <c r="C197">
-        <v>5.380649907804167</v>
+        <v>4.944858981810453</v>
       </c>
       <c r="D197">
-        <v>5.348835654344158</v>
+        <v>4.94448657658188</v>
       </c>
       <c r="E197">
-        <v>5.343025535890673</v>
+        <v>4.966558440255912</v>
       </c>
       <c r="F197">
-        <v>4.93508150142863</v>
+        <v>5.359437036471277</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>4.930692109459878</v>
+        <v>4.92888524463908</v>
       </c>
       <c r="C198">
-        <v>5.369146860847674</v>
+        <v>4.933905285396967</v>
       </c>
       <c r="D198">
-        <v>5.336223827901384</v>
+        <v>4.933526443796122</v>
       </c>
       <c r="E198">
-        <v>5.330784140003855</v>
+        <v>4.955738004400373</v>
       </c>
       <c r="F198">
-        <v>4.924163616309364</v>
+        <v>5.34723318373111</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>4.919835275573169</v>
+        <v>4.918037597919559</v>
       </c>
       <c r="C199">
-        <v>5.357647168820363</v>
+        <v>4.9229970708545</v>
       </c>
       <c r="D199">
-        <v>5.323626883047019</v>
+        <v>4.922611979555888</v>
       </c>
       <c r="E199">
-        <v>5.318558881432904</v>
+        <v>4.944964207619347</v>
       </c>
       <c r="F199">
-        <v>4.913293610326873</v>
+        <v>5.335044465214806</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>4.909025480706011</v>
+        <v>4.907237614530336</v>
       </c>
       <c r="C200">
-        <v>5.34615105926791</v>
+        <v>4.912134115565868</v>
       </c>
       <c r="D200">
-        <v>5.311044882786895</v>
+        <v>4.911742962124729</v>
       </c>
       <c r="E200">
-        <v>5.306349818207129</v>
+        <v>4.934236816101967</v>
       </c>
       <c r="F200">
-        <v>4.902471246421801</v>
+        <v>5.322870925807933</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>4.898262490970326</v>
+        <v>4.89648505928922</v>
       </c>
       <c r="C201">
-        <v>5.334658751875903</v>
+        <v>4.901316198033005</v>
       </c>
       <c r="D201">
-        <v>5.298477886165183</v>
+        <v>4.900919170859227</v>
       </c>
       <c r="E201">
-        <v>5.294157005013856</v>
+        <v>4.923555597253237</v>
       </c>
       <c r="F201">
-        <v>4.891696288729585</v>
+        <v>5.310712603202833</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>4.887546073669315</v>
+        <v>4.885779698174636</v>
       </c>
       <c r="C202">
-        <v>5.32317046374683</v>
+        <v>4.890543097875616</v>
       </c>
       <c r="D202">
-        <v>5.285925951045599</v>
+        <v>4.890140386217439</v>
       </c>
       <c r="E202">
-        <v>5.281980492542931</v>
+        <v>4.912920319698029</v>
       </c>
       <c r="F202">
-        <v>4.880968502577362</v>
+        <v>5.298569531314731</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>4.876875997295756</v>
+        <v>4.875121298328517</v>
       </c>
       <c r="C203">
-        <v>5.311686405269099</v>
+        <v>4.879814595819344</v>
       </c>
       <c r="D203">
-        <v>5.273389132424282</v>
+        <v>4.879406389754152</v>
       </c>
       <c r="E203">
-        <v>5.269820329644953</v>
+        <v>4.902330753251464</v>
       </c>
       <c r="F203">
-        <v>4.870287654410125</v>
+        <v>5.286441751782921</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>4.86625203151733</v>
+        <v>4.864509628050134</v>
       </c>
       <c r="C204">
-        <v>5.300206781503542</v>
+        <v>4.8691304736551</v>
       </c>
       <c r="D204">
-        <v>5.260867482794231</v>
+        <v>4.868716964114213</v>
       </c>
       <c r="E204">
-        <v>5.257676562817441</v>
+        <v>4.891786668923661</v>
       </c>
       <c r="F204">
-        <v>4.859653511854789</v>
+        <v>5.274329300302878</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>4.855673947165915</v>
+        <v>4.853944456791703</v>
       </c>
       <c r="C205">
-        <v>5.288731790520114</v>
+        <v>4.858490514278252</v>
       </c>
       <c r="D205">
-        <v>5.248361050132776</v>
+        <v>4.858071893015039</v>
       </c>
       <c r="E205">
-        <v>5.245549235842062</v>
+        <v>4.881287838912756</v>
       </c>
       <c r="F205">
-        <v>4.849065843692926</v>
+        <v>5.262232211089083</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>4.84514151623933</v>
+        <v>4.843425555144869</v>
       </c>
       <c r="C206">
-        <v>5.277261625957567</v>
+        <v>4.847894501741133</v>
       </c>
       <c r="D206">
-        <v>5.235869882992837</v>
+        <v>4.847470961252162</v>
       </c>
       <c r="E206">
-        <v>5.233438388988439</v>
+        <v>4.870834036610728</v>
       </c>
       <c r="F206">
-        <v>4.838524419854696</v>
+        <v>5.250150515779864</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>4.834654511899556</v>
+        <v>4.832952694841402</v>
       </c>
       <c r="C207">
-        <v>5.265796477570494</v>
+        <v>4.837342221190604</v>
       </c>
       <c r="D207">
-        <v>5.223394026957688</v>
+        <v>4.836913954697172</v>
       </c>
       <c r="E207">
-        <v>5.221344061755388</v>
+        <v>4.860425036570294</v>
       </c>
       <c r="F207">
-        <v>4.828029011439644</v>
+        <v>5.23808424138779</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>4.824212708458778</v>
+        <v>4.822525648753114</v>
       </c>
       <c r="C208">
-        <v>5.254336529686475</v>
+        <v>4.826833458777593</v>
       </c>
       <c r="D208">
-        <v>5.210933525474281</v>
+        <v>4.826400660284668</v>
       </c>
       <c r="E208">
-        <v>5.209266291090039</v>
+        <v>4.850060614515066</v>
       </c>
       <c r="F208">
-        <v>4.817579390672858</v>
+        <v>5.226033419088516</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>4.81381588136888</v>
+        <v>4.812144190875818</v>
       </c>
       <c r="C209">
-        <v>5.242881961956031</v>
+        <v>4.81636800153358</v>
       </c>
       <c r="D209">
-        <v>5.19848841920971</v>
+        <v>4.815930866003195</v>
       </c>
       <c r="E209">
-        <v>5.197205111225266</v>
+        <v>4.839740547329867</v>
       </c>
       <c r="F209">
-        <v>4.807175330893845</v>
+        <v>5.213998076573408</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>4.803463807223048</v>
+        <v>4.801808096322575</v>
       </c>
       <c r="C210">
-        <v>5.231432947029455</v>
+        <v>4.805945637975594</v>
       </c>
       <c r="D210">
-        <v>5.186058748289235</v>
+        <v>4.805504360896349</v>
       </c>
       <c r="E210">
-        <v>5.185160554469854</v>
+        <v>4.829464613067019</v>
       </c>
       <c r="F210">
-        <v>4.796816606579908</v>
+        <v>5.201978240339319</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>4.793156263753947</v>
+        <v>4.791517141323951</v>
       </c>
       <c r="C211">
-        <v>5.219989656155312</v>
+        <v>4.795566157569563</v>
       </c>
       <c r="D211">
-        <v>5.173644550760835</v>
+        <v>4.795120935063355</v>
       </c>
       <c r="E211">
-        <v>5.173132652269116</v>
+        <v>4.819232590912438</v>
       </c>
       <c r="F211">
-        <v>4.786502993328848</v>
+        <v>5.189973935791992</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>4.782893029820349</v>
+        <v>4.781271103219834</v>
       </c>
       <c r="C212">
-        <v>5.208552255235603</v>
+        <v>4.785229350845694</v>
       </c>
       <c r="D212">
-        <v>5.161245862650961</v>
+        <v>4.784780379640151</v>
       </c>
       <c r="E212">
-        <v>5.16112143412395</v>
+        <v>4.809044261198397</v>
       </c>
       <c r="F212">
-        <v>4.776234267853056</v>
+        <v>5.177985187408568</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>4.772673885396792</v>
+        <v>4.771069760453918</v>
       </c>
       <c r="C213">
-        <v>5.197120906041605</v>
+        <v>4.77493500875682</v>
       </c>
       <c r="D213">
-        <v>5.148862717444872</v>
+        <v>4.774482486798813</v>
       </c>
       <c r="E213">
-        <v>5.149126928114445</v>
+        <v>4.798899405392991</v>
       </c>
       <c r="F213">
-        <v>4.766010208011433</v>
+        <v>5.16601201868933</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>4.762498611575126</v>
+        <v>4.760912892608489</v>
       </c>
       <c r="C214">
-        <v>5.18569576557012</v>
+        <v>4.764682924180615</v>
       </c>
       <c r="D214">
-        <v>5.136495148642064</v>
+        <v>4.764227049743842</v>
       </c>
       <c r="E214">
-        <v>5.137149161045127</v>
+        <v>4.788797806104605</v>
       </c>
       <c r="F214">
-        <v>4.755830592725024</v>
+        <v>5.154054452375275</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>4.752366990562604</v>
+        <v>4.75080028030581</v>
       </c>
       <c r="C215">
-        <v>5.174276986155143</v>
+        <v>4.75447289076714</v>
       </c>
       <c r="D215">
-        <v>5.12414318778393</v>
+        <v>4.754013862715821</v>
       </c>
       <c r="E215">
-        <v>5.125188155107328</v>
+        <v>4.778739247051187</v>
       </c>
       <c r="F215">
-        <v>4.745695202021722</v>
+        <v>5.142112510517152</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>4.742278805669094</v>
+        <v>4.740731705274868</v>
       </c>
       <c r="C216">
-        <v>5.162864718004145</v>
+        <v>4.74430470323802</v>
       </c>
       <c r="D216">
-        <v>5.111806864795505</v>
+        <v>4.743842720966199</v>
       </c>
       <c r="E216">
-        <v>5.113243933977988</v>
+        <v>4.768723513071542</v>
       </c>
       <c r="F216">
-        <v>4.735603817026051</v>
+        <v>5.130186214575806</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>4.732233841296901</v>
+        <v>4.730706950326195</v>
       </c>
       <c r="C217">
-        <v>5.151459106926913</v>
+        <v>4.734178157025763</v>
       </c>
       <c r="D217">
-        <v>5.099486208016713</v>
+        <v>4.733713420765233</v>
       </c>
       <c r="E217">
-        <v>5.101316519086978</v>
+        <v>4.758750390116027</v>
       </c>
       <c r="F217">
-        <v>4.725556219949678</v>
+        <v>5.118275578201076</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>4.722231882942243</v>
+        <v>4.720725799346062</v>
       </c>
       <c r="C218">
-        <v>5.140060295178321</v>
+        <v>4.724093048778626</v>
       </c>
       <c r="D218">
-        <v>5.0871812451572</v>
+        <v>4.723625759395551</v>
       </c>
       <c r="E218">
-        <v>5.089405930302088</v>
+        <v>4.748819665248759</v>
       </c>
       <c r="F218">
-        <v>4.715552194090758</v>
+        <v>5.106380621695632</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>4.712272717193226</v>
+        <v>4.710788037309914</v>
       </c>
       <c r="C219">
-        <v>5.12866841994678</v>
+        <v>4.714049176210129</v>
       </c>
       <c r="D219">
-        <v>5.074892002560689</v>
+        <v>4.713579535159973</v>
       </c>
       <c r="E219">
-        <v>5.077512186100426</v>
+        <v>4.738931126620067</v>
       </c>
       <c r="F219">
-        <v>4.705591523863556</v>
+        <v>5.094501363534286</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>4.702356131717641</v>
+        <v>4.700893450283876</v>
       </c>
       <c r="C220">
-        <v>5.117283616312077</v>
+        <v>4.704046337891167</v>
       </c>
       <c r="D220">
-        <v>5.062618504488458</v>
+        <v>4.703574547341502</v>
       </c>
       <c r="E220">
-        <v>5.065635303675264</v>
+        <v>4.729084563476302</v>
       </c>
       <c r="F220">
-        <v>4.695673994694839</v>
+        <v>5.08263782069811</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>4.692481915252985</v>
+        <v>4.691041825337785</v>
       </c>
       <c r="C221">
-        <v>5.105906016151371</v>
+        <v>4.694084333503803</v>
       </c>
       <c r="D221">
-        <v>5.05036077403842</v>
+        <v>4.693610596224528</v>
       </c>
       <c r="E221">
-        <v>5.053775299041096</v>
+        <v>4.719279766154082</v>
       </c>
       <c r="F221">
-        <v>4.685799393100311</v>
+        <v>5.070790009526515</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>4.682649857607817</v>
+        <v>4.68123295062132</v>
       </c>
       <c r="C222">
-        <v>5.094535747897067</v>
+        <v>4.684162963710296</v>
       </c>
       <c r="D222">
-        <v>5.038118834606967</v>
+        <v>4.68368748308241</v>
       </c>
       <c r="E222">
-        <v>5.041932187775442</v>
+        <v>4.709516526083643</v>
       </c>
       <c r="F222">
-        <v>4.675967506656294</v>
+        <v>5.058957945287996</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>4.672859749659639</v>
+        <v>4.671466615334024</v>
       </c>
       <c r="C223">
-        <v>5.083172936643429</v>
+        <v>4.674282030134428</v>
       </c>
       <c r="D223">
-        <v>5.02589270816506</v>
+        <v>4.673805010171972</v>
       </c>
       <c r="E223">
-        <v>5.030105983674416</v>
+        <v>4.699794635746973</v>
       </c>
       <c r="F223">
-        <v>4.666178123994133</v>
+        <v>5.047141642937431</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>4.663111383343248</v>
+        <v>4.661742609719727</v>
       </c>
       <c r="C224">
-        <v>5.071817702938851</v>
+        <v>4.664441335448625</v>
       </c>
       <c r="D224">
-        <v>5.01368241591352</v>
+        <v>4.663962980743483</v>
       </c>
       <c r="E224">
-        <v>5.01829669984451</v>
+        <v>4.690113888701244</v>
       </c>
       <c r="F224">
-        <v>4.656431034810864</v>
+        <v>5.035341117175174</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>4.653404551640951</v>
+        <v>4.652060725100893</v>
       </c>
       <c r="C225">
-        <v>5.060470166508752</v>
+        <v>4.654640683294635</v>
       </c>
       <c r="D225">
-        <v>5.001487978373391</v>
+        <v>4.654161199042065</v>
       </c>
       <c r="E225">
-        <v>5.006504348330862</v>
+        <v>4.680474079564374</v>
       </c>
       <c r="F225">
-        <v>4.646726029863077</v>
+        <v>5.02355638207709</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>4.643739048583797</v>
+        <v>4.64242075380861</v>
       </c>
       <c r="C226">
-        <v>5.049130443448552</v>
+        <v>4.644879878236511</v>
       </c>
       <c r="D226">
-        <v>4.989309413238091</v>
+        <v>4.644399470234384</v>
       </c>
       <c r="E226">
-        <v>4.994728940449551</v>
+        <v>4.670875004008614</v>
       </c>
       <c r="F226">
-        <v>4.637062900907369</v>
+        <v>5.011787451319374</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>4.634114669254667</v>
+        <v>4.632822489189024</v>
       </c>
       <c r="C227">
-        <v>5.037798647109286</v>
+        <v>4.635158725918215</v>
       </c>
       <c r="D227">
-        <v>4.977146737305438</v>
+        <v>4.634677600470767</v>
       </c>
       <c r="E227">
-        <v>4.982970486797124</v>
+        <v>4.661316458773014</v>
       </c>
       <c r="F227">
-        <v>4.627441440752851</v>
+        <v>5.000034335906161</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>4.62453120976918</v>
+        <v>4.623265725625682</v>
       </c>
       <c r="C228">
-        <v>5.026474887305683</v>
+        <v>4.625477032895882</v>
       </c>
       <c r="D228">
-        <v>4.964999970069912</v>
+        <v>4.624995396859765</v>
       </c>
       <c r="E228">
-        <v>4.9712289969339</v>
+        <v>4.651798241671526</v>
       </c>
       <c r="F228">
-        <v>4.617861443238013</v>
+        <v>4.988297045241147</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>4.614988467264125</v>
+        <v>4.613750258521589</v>
       </c>
       <c r="C229">
-        <v>5.015159271239607</v>
+        <v>4.615834606637881</v>
       </c>
       <c r="D229">
-        <v>4.952869128900824</v>
+        <v>4.615352667462768</v>
       </c>
       <c r="E229">
-        <v>4.95950447919516</v>
+        <v>4.642320151488897</v>
       </c>
       <c r="F229">
-        <v>4.608322703225289</v>
+        <v>4.976575592296043</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>4.605486239904758</v>
+        <v>4.604275884294716</v>
       </c>
       <c r="C230">
-        <v>5.003851904456025</v>
+        <v>4.606231255691774</v>
       </c>
       <c r="D230">
-        <v>4.940754230741428</v>
+        <v>4.605749221332735</v>
       </c>
       <c r="E230">
-        <v>4.947796941917541</v>
+        <v>4.632881988069273</v>
       </c>
       <c r="F230">
-        <v>4.598825016622869</v>
+        <v>4.964869987661756</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>4.596024326874486</v>
+        <v>4.594842400416459</v>
       </c>
       <c r="C231">
-        <v>4.992552889595943</v>
+        <v>4.596666789466661</v>
       </c>
       <c r="D231">
-        <v>4.928655292188956</v>
+        <v>4.596184868460478</v>
       </c>
       <c r="E231">
-        <v>4.936106392506974</v>
+        <v>4.623483552281957</v>
       </c>
       <c r="F231">
-        <v>4.589368180338903</v>
+        <v>4.953180241428192</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>4.58660252836906</v>
+        <v>4.585449605304115</v>
       </c>
       <c r="C232">
-        <v>4.981262326928991</v>
+        <v>4.587141018313217</v>
       </c>
       <c r="D232">
-        <v>4.916572325336245</v>
+        <v>4.586659419729288</v>
       </c>
       <c r="E232">
-        <v>4.924432837069673</v>
+        <v>4.614124646015158</v>
       </c>
       <c r="F232">
-        <v>4.579951992275672</v>
+        <v>4.941506363624532</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>4.577220645625347</v>
+        <v>4.57609729839682</v>
       </c>
       <c r="C233">
-        <v>4.969980312945381</v>
+        <v>4.577653753616506</v>
       </c>
       <c r="D233">
-        <v>4.90450534026785</v>
+        <v>4.577172686983193</v>
       </c>
       <c r="E233">
-        <v>4.912776281657973</v>
+        <v>4.604805072206657</v>
       </c>
       <c r="F233">
-        <v>4.570576251350272</v>
+        <v>4.92984836513468</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>4.567878480868161</v>
+        <v>4.566785280128481</v>
       </c>
       <c r="C234">
-        <v>4.958706943472502</v>
+        <v>4.568204807594154</v>
       </c>
       <c r="D234">
-        <v>4.892454354395811</v>
+        <v>4.567724482996304</v>
       </c>
       <c r="E234">
-        <v>4.901136731483034</v>
+        <v>4.595524634841957</v>
       </c>
       <c r="F234">
-        <v>4.561240757478803</v>
+        <v>4.918206254452388</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>4.558575837293951</v>
+        <v>4.557513351922576</v>
       </c>
       <c r="C235">
-        <v>4.947442311673202</v>
+        <v>4.558793993443652</v>
       </c>
       <c r="D235">
-        <v>4.88041938098891</v>
+        <v>4.558314621467719</v>
       </c>
       <c r="E235">
-        <v>4.889514191133102</v>
+        <v>4.586283138809923</v>
       </c>
       <c r="F235">
-        <v>4.551945311571092</v>
+        <v>4.906580040601192</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>4.549312519106256</v>
+        <v>4.548281316197034</v>
       </c>
       <c r="C236">
-        <v>4.936186508529003</v>
+        <v>4.54942112534013</v>
       </c>
       <c r="D236">
-        <v>4.868400432928528</v>
+        <v>4.548942917071728</v>
       </c>
       <c r="E236">
-        <v>4.877908664610719</v>
+        <v>4.577080390042306</v>
       </c>
       <c r="F236">
-        <v>4.542689715564128</v>
+        <v>4.894969732359787</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>4.540088331494367</v>
+        <v>4.539088976361403</v>
       </c>
       <c r="C237">
-        <v>4.924939622632517</v>
+        <v>4.54008601826765</v>
       </c>
       <c r="D237">
-        <v>4.856397522759146</v>
+        <v>4.539609185353358</v>
       </c>
       <c r="E237">
-        <v>4.866320155370432</v>
+        <v>4.567916195463508</v>
       </c>
       <c r="F237">
-        <v>4.533473772335013</v>
+        <v>4.88337533815522</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>4.530903080627649</v>
+        <v>4.529936136772372</v>
       </c>
       <c r="C238">
-        <v>4.913701739926435</v>
+        <v>4.530788488229526</v>
       </c>
       <c r="D238">
-        <v>4.844410660266473</v>
+        <v>4.530313242761673</v>
       </c>
       <c r="E238">
-        <v>4.854748666351038</v>
+        <v>4.558790362984668</v>
       </c>
       <c r="F238">
-        <v>4.52429728575092</v>
+        <v>4.871796862394691</v>
       </c>
     </row>
   </sheetData>
